--- a/data/data_koae/excel/KOAE_2017.xlsx
+++ b/data/data_koae/excel/KOAE_2017.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruce\Desktop\KilaueaKoaProject\data_koae\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruce\Desktop\KilaueaKoaeProject\KilaueaKoaeProject\data\data_koae\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,750 +23,192 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="313">
   <si>
     <t>K001</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469242.9910</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518480.7218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2099557.3891</t>
-  </si>
-  <si>
     <t>K002</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469283.7102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518480.5076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2099460.8494</t>
-  </si>
-  <si>
     <t>K003</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469324.2844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518494.7597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2099346.8323</t>
-  </si>
-  <si>
     <t>K004</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469345.6292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518519.9594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2099254.8954</t>
-  </si>
-  <si>
     <t>K005</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469211.4863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518466.6487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2099657.1169</t>
-  </si>
-  <si>
     <t>K006</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469178.5699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518469.6193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2099754.7279</t>
-  </si>
-  <si>
     <t>K007</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469170.3942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518419.7732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2099831.8847</t>
-  </si>
-  <si>
     <t>K008</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469158.5547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518378.1969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2099928.2116</t>
-  </si>
-  <si>
     <t>K009</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469158.4902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518324.0444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2100028.7349</t>
-  </si>
-  <si>
     <t>K010</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469129.1038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518298.9104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2100135.2006</t>
-  </si>
-  <si>
     <t>K011</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469115.9134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518271.4302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2100234.0134</t>
-  </si>
-  <si>
     <t>K012</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469116.9413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518209.6366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2100318.6084</t>
-  </si>
-  <si>
     <t>K013</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469110.6445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518159.4164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2100404.6309</t>
-  </si>
-  <si>
     <t>K014</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469109.7774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518145.1124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2100420.1296</t>
-  </si>
-  <si>
     <t>K015</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469127.2960</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518100.8297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2100423.3711</t>
-  </si>
-  <si>
     <t>K016</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469096.4039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518107.5326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2100494.2275</t>
-  </si>
-  <si>
     <t>K017</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469082.6530</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518110.8347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2100514.1484</t>
-  </si>
-  <si>
     <t>K018</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469068.8908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518069.4315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2100602.7832</t>
-  </si>
-  <si>
     <t>K019</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469048.9110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518034.0340</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2100707.1907</t>
-  </si>
-  <si>
     <t>K020</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469049.1017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517966.4842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2100792.9744</t>
-  </si>
-  <si>
     <t>K021</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469032.0990</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517934.6731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2100879.4682</t>
-  </si>
-  <si>
     <t>K022</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469070.8258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518099.6019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2100551.1611</t>
-  </si>
-  <si>
     <t>K023</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469030.2980</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517883.1639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2100974.1405</t>
-  </si>
-  <si>
     <t>K024</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469021.9564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517836.7340</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2101073.4534</t>
-  </si>
-  <si>
     <t>K025</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5468998.1919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517810.4748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2101172.4885</t>
-  </si>
-  <si>
     <t>K026</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5468988.0801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517792.5970</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2101225.8295</t>
-  </si>
-  <si>
     <t>K027</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5468971.7766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517764.9416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2101281.8964</t>
-  </si>
-  <si>
     <t>K028</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5468956.0141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517712.3176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2101353.8558</t>
-  </si>
-  <si>
     <t>K029</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5468932.1753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517684.5620</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2101458.1582</t>
-  </si>
-  <si>
     <t>K030</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5468913.4631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517646.1145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2101558.3112</t>
-  </si>
-  <si>
     <t>K031</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5468913.7707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517604.1375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2101613.8800</t>
-  </si>
-  <si>
     <t>K032</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5468888.9075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517620.6894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2101676.9080</t>
-  </si>
-  <si>
     <t>K033</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5468891.1830</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517581.1484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2101734.4305</t>
-  </si>
-  <si>
     <t>K034</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5468868.0114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517569.9364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2101806.5190</t>
-  </si>
-  <si>
     <t>K035</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5468852.2841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517501.2722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2101910.7119</t>
-  </si>
-  <si>
     <t>K036</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5468829.5819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517470.3365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2102010.6161</t>
-  </si>
-  <si>
     <t>K037</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5468819.1247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517421.0813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2102102.8729</t>
-  </si>
-  <si>
     <t>K038</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5468799.2234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517390.6253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2102205.4634</t>
-  </si>
-  <si>
     <t>K039</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5468800.7250</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517324.9412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2102282.2151</t>
-  </si>
-  <si>
     <t>K040</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5468769.2002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517326.6160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2102369.1034</t>
-  </si>
-  <si>
     <t>K041</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5468780.9270</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517254.1679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2102424.8040</t>
-  </si>
-  <si>
     <t>K042</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5468762.0885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517215.6791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2102522.6500</t>
-  </si>
-  <si>
     <t>K043</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5468741.1758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517173.5572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2102626.9010</t>
-  </si>
-  <si>
     <t>K044</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5468742.6352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517122.9951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2102684.3172</t>
-  </si>
-  <si>
     <t>K045</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5468636.6789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517276.7088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2102790.2756</t>
-  </si>
-  <si>
     <t>K046</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5468608.9606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517222.0350</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2102933.8619</t>
-  </si>
-  <si>
     <t>K047</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469403.3991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518445.0631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2099193.5088</t>
-  </si>
-  <si>
     <t>K048</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469456.4639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518360.9971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2099146.3116</t>
-  </si>
-  <si>
     <t>K049</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469515.5690</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518279.0942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2099068.3503</t>
-  </si>
-  <si>
     <t>K050</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469583.4981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518210.4324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2098963.9386</t>
-  </si>
-  <si>
     <t>K051</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469621.1594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518189.9602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2098872.0207</t>
-  </si>
-  <si>
     <t>K052</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469662.0311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518141.5123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2098787.4997</t>
-  </si>
-  <si>
     <t>K053</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469693.0898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518137.6083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2098693.4623</t>
-  </si>
-  <si>
     <t>K054</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469734.7648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518058.9016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2098645.6507</t>
-  </si>
-  <si>
     <t>K055</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469775.2557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518052.3595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2098549.1146</t>
-  </si>
-  <si>
     <t>K056</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469804.4358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518073.4978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2098441.6040</t>
-  </si>
-  <si>
     <t>K057</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469814.9907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518118.4362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2098344.7849</t>
-  </si>
-  <si>
     <t>K058</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469844.1345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518150.2197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2098220.6941</t>
-  </si>
-  <si>
     <t>K059</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469870.6623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518174.7141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2098124.3766</t>
-  </si>
-  <si>
     <t>K060</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469912.7360</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518147.4693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2098032.8849</t>
-  </si>
-  <si>
     <t>K061</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469931.2522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518180.5625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2097936.2158</t>
-  </si>
-  <si>
     <t>K063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -5469993.5319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518185.0282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2097751.6363</t>
   </si>
   <si>
     <t>id site</t>
@@ -1029,6 +471,510 @@
   </si>
   <si>
     <t>NaN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469242.8943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518481.1979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2099557.0773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469283.5899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518481.1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2099460.4614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469324.1641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518495.3521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2099346.4443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469345.5056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518520.5679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2099254.4969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469211.3896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518467.1248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2099656.8052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469178.4732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518470.0954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2099754.4162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469170.3040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518420.2171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2099831.5939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469158.4580</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518378.6730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2099927.8998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469158.3826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518324.5744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2100028.3878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469128.9860</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518299.4907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2100134.8206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469115.8122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518271.9287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2100233.6869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469116.8401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518210.1351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2100318.2819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469110.5363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518159.9495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2100404.2818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469109.6667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518145.6579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2100419.7724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469127.1743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518101.4293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2100422.9785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469096.2862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518108.1122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2100493.8479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469082.5537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518111.3236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2100513.8281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469068.7656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518070.0488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2100602.3790</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469048.8003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518034.5793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2100706.8336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469049.0051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517966.9602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2100792.6627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469032.0024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517935.1491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2100879.1565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469070.7125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518100.1601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2100550.7955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469030.2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517883.6399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2100973.8288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469021.8521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517837.2478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2101073.1170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5468998.0813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517811.0201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2101172.1314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5468987.9900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517793.0411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2101225.5387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5468971.6800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517765.4175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2101281.5847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5468955.9072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517712.8443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2101353.5109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5468932.0646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517685.1075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2101457.8010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5468913.3678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517646.5846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2101558.0033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5468913.6665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517604.6515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2101613.5434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5468888.8111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517621.1644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2101676.5969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5468891.0788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517581.6626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2101734.0938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5468867.8982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517570.4949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2101806.1533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5468852.1799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517501.7864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2101910.3752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5468829.4854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517470.8127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2102010.3043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5468819.0049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517421.6724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2102102.4859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5468799.1036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517391.2164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2102205.0764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5468800.6209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517325.4551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2102281.8786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5468769.0961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517327.1298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2102368.7671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5468780.8229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517254.6818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2102424.4675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5468761.9845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517216.1927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2102522.3137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5468741.0948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517173.9572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2102626.6391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5468742.5316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517123.5068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2102683.9822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5468636.5753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517277.2205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2102789.9406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5468608.8448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517222.6070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2102933.4874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469456.4179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518361.2232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2099146.1635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469583.4444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518210.6971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2098963.7653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469661.9852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518141.7386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2098787.3515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469775.1923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518052.6717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2098548.9102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469804.3724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518073.8100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2098441.3996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469814.9273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518118.7485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2098344.5804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469844.0710</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518150.5320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2098220.4896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469870.5524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518175.2546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2098124.0226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469912.6174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518148.0528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2098032.5027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469993.4133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518185.6117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2097751.2541</t>
   </si>
 </sst>
 </file>
@@ -1923,45 +1869,45 @@
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>248</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>249</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>250</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>251</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>252</v>
+        <v>66</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>253</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>254</v>
+        <v>68</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>255</v>
+        <v>69</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>256</v>
+        <v>70</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>257</v>
+        <v>71</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>258</v>
+        <v>72</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>259</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
-        <v>260</v>
+        <v>74</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
@@ -1970,7 +1916,7 @@
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
       <c r="H3" s="19" t="s">
-        <v>261</v>
+        <v>75</v>
       </c>
       <c r="I3" s="19"/>
       <c r="J3" s="19"/>
@@ -1988,10 +1934,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S64"/>
+  <dimension ref="A1:S58"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G64"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2002,30 +1948,30 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>269</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="8" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>262</v>
+        <v>76</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>263</v>
+        <v>77</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>264</v>
+        <v>78</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>265</v>
+        <v>79</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>266</v>
+        <v>80</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>267</v>
+        <v>81</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>268</v>
+        <v>82</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -2045,13 +1991,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>145</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>146</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>147</v>
       </c>
       <c r="E3">
         <v>2017</v>
@@ -2065,16 +2011,16 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>148</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>149</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>150</v>
       </c>
       <c r="E4">
         <v>2017</v>
@@ -2088,16 +2034,16 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>151</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>153</v>
       </c>
       <c r="E5">
         <v>2017</v>
@@ -2111,16 +2057,16 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>154</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>156</v>
       </c>
       <c r="E6">
         <v>2017</v>
@@ -2134,16 +2080,16 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>157</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>158</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>159</v>
       </c>
       <c r="E7">
         <v>2017</v>
@@ -2157,16 +2103,16 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>160</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>161</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>162</v>
       </c>
       <c r="E8">
         <v>2017</v>
@@ -2180,16 +2126,16 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>163</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>164</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="E9">
         <v>2017</v>
@@ -2203,16 +2149,16 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>166</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>168</v>
       </c>
       <c r="E10">
         <v>2017</v>
@@ -2226,16 +2172,16 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>169</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>171</v>
       </c>
       <c r="E11">
         <v>2017</v>
@@ -2249,16 +2195,16 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>173</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>174</v>
       </c>
       <c r="E12">
         <v>2017</v>
@@ -2272,16 +2218,16 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>176</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>177</v>
       </c>
       <c r="E13">
         <v>2017</v>
@@ -2295,16 +2241,16 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>178</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>179</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>180</v>
       </c>
       <c r="E14">
         <v>2017</v>
@@ -2318,16 +2264,16 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>181</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>182</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>183</v>
       </c>
       <c r="E15">
         <v>2017</v>
@@ -2341,16 +2287,16 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>184</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>185</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>186</v>
       </c>
       <c r="E16">
         <v>2017</v>
@@ -2364,16 +2310,16 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>187</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>188</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>189</v>
       </c>
       <c r="E17">
         <v>2017</v>
@@ -2387,16 +2333,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>190</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>191</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>192</v>
       </c>
       <c r="E18">
         <v>2017</v>
@@ -2410,16 +2356,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>193</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>194</v>
       </c>
       <c r="D19" t="s">
-        <v>67</v>
+        <v>195</v>
       </c>
       <c r="E19">
         <v>2017</v>
@@ -2433,16 +2379,16 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>196</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>197</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>198</v>
       </c>
       <c r="E20">
         <v>2017</v>
@@ -2456,16 +2402,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>199</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
+        <v>200</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>201</v>
       </c>
       <c r="E21">
         <v>2017</v>
@@ -2479,16 +2425,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>203</v>
       </c>
       <c r="D22" t="s">
-        <v>79</v>
+        <v>204</v>
       </c>
       <c r="E22">
         <v>2017</v>
@@ -2502,16 +2448,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>205</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="D23" t="s">
-        <v>83</v>
+        <v>207</v>
       </c>
       <c r="E23">
         <v>2017</v>
@@ -2525,16 +2471,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>208</v>
       </c>
       <c r="C24" t="s">
-        <v>86</v>
+        <v>209</v>
       </c>
       <c r="D24" t="s">
-        <v>87</v>
+        <v>210</v>
       </c>
       <c r="E24">
         <v>2017</v>
@@ -2548,16 +2494,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>89</v>
+        <v>211</v>
       </c>
       <c r="C25" t="s">
-        <v>90</v>
+        <v>212</v>
       </c>
       <c r="D25" t="s">
-        <v>91</v>
+        <v>213</v>
       </c>
       <c r="E25">
         <v>2017</v>
@@ -2571,16 +2517,16 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>214</v>
       </c>
       <c r="C26" t="s">
-        <v>94</v>
+        <v>215</v>
       </c>
       <c r="D26" t="s">
-        <v>95</v>
+        <v>216</v>
       </c>
       <c r="E26">
         <v>2017</v>
@@ -2594,16 +2540,16 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>97</v>
+        <v>217</v>
       </c>
       <c r="C27" t="s">
-        <v>98</v>
+        <v>218</v>
       </c>
       <c r="D27" t="s">
-        <v>99</v>
+        <v>219</v>
       </c>
       <c r="E27">
         <v>2017</v>
@@ -2617,16 +2563,16 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>220</v>
       </c>
       <c r="C28" t="s">
-        <v>102</v>
+        <v>221</v>
       </c>
       <c r="D28" t="s">
-        <v>103</v>
+        <v>222</v>
       </c>
       <c r="E28">
         <v>2017</v>
@@ -2640,16 +2586,16 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>105</v>
+        <v>223</v>
       </c>
       <c r="C29" t="s">
-        <v>106</v>
+        <v>224</v>
       </c>
       <c r="D29" t="s">
-        <v>107</v>
+        <v>225</v>
       </c>
       <c r="E29">
         <v>2017</v>
@@ -2663,16 +2609,16 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>109</v>
+        <v>226</v>
       </c>
       <c r="C30" t="s">
-        <v>110</v>
+        <v>227</v>
       </c>
       <c r="D30" t="s">
-        <v>111</v>
+        <v>228</v>
       </c>
       <c r="E30">
         <v>2017</v>
@@ -2686,16 +2632,16 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>113</v>
+        <v>229</v>
       </c>
       <c r="C31" t="s">
-        <v>114</v>
+        <v>230</v>
       </c>
       <c r="D31" t="s">
-        <v>115</v>
+        <v>231</v>
       </c>
       <c r="E31">
         <v>2017</v>
@@ -2709,16 +2655,16 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>116</v>
+        <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>117</v>
+        <v>232</v>
       </c>
       <c r="C32" t="s">
-        <v>118</v>
+        <v>233</v>
       </c>
       <c r="D32" t="s">
-        <v>119</v>
+        <v>234</v>
       </c>
       <c r="E32">
         <v>2017</v>
@@ -2732,16 +2678,16 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>121</v>
+        <v>235</v>
       </c>
       <c r="C33" t="s">
-        <v>122</v>
+        <v>236</v>
       </c>
       <c r="D33" t="s">
-        <v>123</v>
+        <v>237</v>
       </c>
       <c r="E33">
         <v>2017</v>
@@ -2755,16 +2701,16 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>124</v>
+        <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>125</v>
+        <v>238</v>
       </c>
       <c r="C34" t="s">
-        <v>126</v>
+        <v>239</v>
       </c>
       <c r="D34" t="s">
-        <v>127</v>
+        <v>240</v>
       </c>
       <c r="E34">
         <v>2017</v>
@@ -2778,16 +2724,16 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>129</v>
+        <v>241</v>
       </c>
       <c r="C35" t="s">
-        <v>130</v>
+        <v>242</v>
       </c>
       <c r="D35" t="s">
-        <v>131</v>
+        <v>243</v>
       </c>
       <c r="E35">
         <v>2017</v>
@@ -2801,16 +2747,16 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>133</v>
+        <v>244</v>
       </c>
       <c r="C36" t="s">
-        <v>134</v>
+        <v>245</v>
       </c>
       <c r="D36" t="s">
-        <v>135</v>
+        <v>246</v>
       </c>
       <c r="E36">
         <v>2017</v>
@@ -2824,16 +2770,16 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>136</v>
+        <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>137</v>
+        <v>247</v>
       </c>
       <c r="C37" t="s">
-        <v>138</v>
+        <v>248</v>
       </c>
       <c r="D37" t="s">
-        <v>139</v>
+        <v>249</v>
       </c>
       <c r="E37">
         <v>2017</v>
@@ -2847,16 +2793,16 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>141</v>
+        <v>250</v>
       </c>
       <c r="C38" t="s">
-        <v>142</v>
+        <v>251</v>
       </c>
       <c r="D38" t="s">
-        <v>143</v>
+        <v>252</v>
       </c>
       <c r="E38">
         <v>2017</v>
@@ -2870,16 +2816,16 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>144</v>
+        <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>145</v>
+        <v>253</v>
       </c>
       <c r="C39" t="s">
-        <v>146</v>
+        <v>254</v>
       </c>
       <c r="D39" t="s">
-        <v>147</v>
+        <v>255</v>
       </c>
       <c r="E39">
         <v>2017</v>
@@ -2893,16 +2839,16 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>149</v>
+        <v>256</v>
       </c>
       <c r="C40" t="s">
-        <v>150</v>
+        <v>257</v>
       </c>
       <c r="D40" t="s">
-        <v>151</v>
+        <v>258</v>
       </c>
       <c r="E40">
         <v>2017</v>
@@ -2916,16 +2862,16 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>152</v>
+        <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>153</v>
+        <v>259</v>
       </c>
       <c r="C41" t="s">
-        <v>154</v>
+        <v>260</v>
       </c>
       <c r="D41" t="s">
-        <v>155</v>
+        <v>261</v>
       </c>
       <c r="E41">
         <v>2017</v>
@@ -2939,16 +2885,16 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>156</v>
+        <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>157</v>
+        <v>262</v>
       </c>
       <c r="C42" t="s">
-        <v>158</v>
+        <v>263</v>
       </c>
       <c r="D42" t="s">
-        <v>159</v>
+        <v>264</v>
       </c>
       <c r="E42">
         <v>2017</v>
@@ -2962,16 +2908,16 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>161</v>
+        <v>265</v>
       </c>
       <c r="C43" t="s">
-        <v>162</v>
+        <v>266</v>
       </c>
       <c r="D43" t="s">
-        <v>163</v>
+        <v>267</v>
       </c>
       <c r="E43">
         <v>2017</v>
@@ -2985,16 +2931,16 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>164</v>
+        <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>165</v>
+        <v>268</v>
       </c>
       <c r="C44" t="s">
-        <v>166</v>
+        <v>269</v>
       </c>
       <c r="D44" t="s">
-        <v>167</v>
+        <v>270</v>
       </c>
       <c r="E44">
         <v>2017</v>
@@ -3008,16 +2954,16 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>168</v>
+        <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>169</v>
+        <v>271</v>
       </c>
       <c r="C45" t="s">
-        <v>170</v>
+        <v>272</v>
       </c>
       <c r="D45" t="s">
-        <v>171</v>
+        <v>273</v>
       </c>
       <c r="E45">
         <v>2017</v>
@@ -3031,16 +2977,16 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>172</v>
+        <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>173</v>
+        <v>274</v>
       </c>
       <c r="C46" t="s">
-        <v>174</v>
+        <v>275</v>
       </c>
       <c r="D46" t="s">
-        <v>175</v>
+        <v>276</v>
       </c>
       <c r="E46">
         <v>2017</v>
@@ -3054,16 +3000,16 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>176</v>
+        <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>177</v>
+        <v>277</v>
       </c>
       <c r="C47" t="s">
-        <v>178</v>
+        <v>278</v>
       </c>
       <c r="D47" t="s">
-        <v>179</v>
+        <v>279</v>
       </c>
       <c r="E47">
         <v>2017</v>
@@ -3077,16 +3023,16 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>181</v>
+        <v>280</v>
       </c>
       <c r="C48" t="s">
-        <v>182</v>
+        <v>281</v>
       </c>
       <c r="D48" t="s">
-        <v>183</v>
+        <v>282</v>
       </c>
       <c r="E48">
         <v>2017</v>
@@ -3100,16 +3046,16 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>184</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>185</v>
+        <v>283</v>
       </c>
       <c r="C49" t="s">
-        <v>186</v>
+        <v>284</v>
       </c>
       <c r="D49" t="s">
-        <v>187</v>
+        <v>285</v>
       </c>
       <c r="E49">
         <v>2017</v>
@@ -3123,16 +3069,16 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>188</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>189</v>
+        <v>286</v>
       </c>
       <c r="C50" t="s">
-        <v>190</v>
+        <v>287</v>
       </c>
       <c r="D50" t="s">
-        <v>191</v>
+        <v>288</v>
       </c>
       <c r="E50">
         <v>2017</v>
@@ -3146,16 +3092,16 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>192</v>
+        <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>193</v>
+        <v>289</v>
       </c>
       <c r="C51" t="s">
-        <v>194</v>
+        <v>290</v>
       </c>
       <c r="D51" t="s">
-        <v>195</v>
+        <v>291</v>
       </c>
       <c r="E51">
         <v>2017</v>
@@ -3164,21 +3110,21 @@
         <v>7</v>
       </c>
       <c r="G51">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>196</v>
+        <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>197</v>
+        <v>292</v>
       </c>
       <c r="C52" t="s">
-        <v>198</v>
+        <v>293</v>
       </c>
       <c r="D52" t="s">
-        <v>199</v>
+        <v>294</v>
       </c>
       <c r="E52">
         <v>2017</v>
@@ -3187,21 +3133,21 @@
         <v>7</v>
       </c>
       <c r="G52">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>201</v>
+        <v>295</v>
       </c>
       <c r="C53" t="s">
-        <v>202</v>
+        <v>296</v>
       </c>
       <c r="D53" t="s">
-        <v>203</v>
+        <v>297</v>
       </c>
       <c r="E53">
         <v>2017</v>
@@ -3210,21 +3156,21 @@
         <v>7</v>
       </c>
       <c r="G53">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>204</v>
+        <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>205</v>
+        <v>298</v>
       </c>
       <c r="C54" t="s">
-        <v>206</v>
+        <v>299</v>
       </c>
       <c r="D54" t="s">
-        <v>207</v>
+        <v>300</v>
       </c>
       <c r="E54">
         <v>2017</v>
@@ -3233,21 +3179,21 @@
         <v>7</v>
       </c>
       <c r="G54">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>208</v>
+        <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>209</v>
+        <v>301</v>
       </c>
       <c r="C55" t="s">
-        <v>210</v>
+        <v>302</v>
       </c>
       <c r="D55" t="s">
-        <v>211</v>
+        <v>303</v>
       </c>
       <c r="E55">
         <v>2017</v>
@@ -3256,21 +3202,21 @@
         <v>7</v>
       </c>
       <c r="G55">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>212</v>
+        <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>213</v>
+        <v>304</v>
       </c>
       <c r="C56" t="s">
-        <v>214</v>
+        <v>305</v>
       </c>
       <c r="D56" t="s">
-        <v>215</v>
+        <v>306</v>
       </c>
       <c r="E56">
         <v>2017</v>
@@ -3279,21 +3225,21 @@
         <v>7</v>
       </c>
       <c r="G56">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>216</v>
+        <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>217</v>
+        <v>307</v>
       </c>
       <c r="C57" t="s">
-        <v>218</v>
+        <v>308</v>
       </c>
       <c r="D57" t="s">
-        <v>219</v>
+        <v>309</v>
       </c>
       <c r="E57">
         <v>2017</v>
@@ -3302,21 +3248,21 @@
         <v>7</v>
       </c>
       <c r="G57">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>220</v>
+        <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>221</v>
+        <v>310</v>
       </c>
       <c r="C58" t="s">
-        <v>222</v>
+        <v>311</v>
       </c>
       <c r="D58" t="s">
-        <v>223</v>
+        <v>312</v>
       </c>
       <c r="E58">
         <v>2017</v>
@@ -3325,144 +3271,6 @@
         <v>7</v>
       </c>
       <c r="G58">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>224</v>
-      </c>
-      <c r="B59" t="s">
-        <v>225</v>
-      </c>
-      <c r="C59" t="s">
-        <v>226</v>
-      </c>
-      <c r="D59" t="s">
-        <v>227</v>
-      </c>
-      <c r="E59">
-        <v>2017</v>
-      </c>
-      <c r="F59">
-        <v>7</v>
-      </c>
-      <c r="G59">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>228</v>
-      </c>
-      <c r="B60" t="s">
-        <v>229</v>
-      </c>
-      <c r="C60" t="s">
-        <v>230</v>
-      </c>
-      <c r="D60" t="s">
-        <v>231</v>
-      </c>
-      <c r="E60">
-        <v>2017</v>
-      </c>
-      <c r="F60">
-        <v>7</v>
-      </c>
-      <c r="G60">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>232</v>
-      </c>
-      <c r="B61" t="s">
-        <v>233</v>
-      </c>
-      <c r="C61" t="s">
-        <v>234</v>
-      </c>
-      <c r="D61" t="s">
-        <v>235</v>
-      </c>
-      <c r="E61">
-        <v>2017</v>
-      </c>
-      <c r="F61">
-        <v>7</v>
-      </c>
-      <c r="G61">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>236</v>
-      </c>
-      <c r="B62" t="s">
-        <v>237</v>
-      </c>
-      <c r="C62" t="s">
-        <v>238</v>
-      </c>
-      <c r="D62" t="s">
-        <v>239</v>
-      </c>
-      <c r="E62">
-        <v>2017</v>
-      </c>
-      <c r="F62">
-        <v>7</v>
-      </c>
-      <c r="G62">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>240</v>
-      </c>
-      <c r="B63" t="s">
-        <v>241</v>
-      </c>
-      <c r="C63" t="s">
-        <v>242</v>
-      </c>
-      <c r="D63" t="s">
-        <v>243</v>
-      </c>
-      <c r="E63">
-        <v>2017</v>
-      </c>
-      <c r="F63">
-        <v>7</v>
-      </c>
-      <c r="G63">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>244</v>
-      </c>
-      <c r="B64" t="s">
-        <v>245</v>
-      </c>
-      <c r="C64" t="s">
-        <v>246</v>
-      </c>
-      <c r="D64" t="s">
-        <v>247</v>
-      </c>
-      <c r="E64">
-        <v>2017</v>
-      </c>
-      <c r="F64">
-        <v>7</v>
-      </c>
-      <c r="G64">
         <v>23</v>
       </c>
     </row>
@@ -3476,11 +3284,14 @@
   <dimension ref="A1:L66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:J66"/>
+      <selection activeCell="L1" sqref="L1:L66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="2" max="2" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="1.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="13.90625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.7265625" bestFit="1" customWidth="1"/>
   </cols>
@@ -3499,28 +3310,28 @@
         <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>145</v>
       </c>
       <c r="F1" t="s">
-        <v>2</v>
+        <v>146</v>
       </c>
       <c r="G1" t="s">
-        <v>3</v>
+        <v>147</v>
       </c>
       <c r="H1">
-        <v>19.3431823442337</v>
+        <v>19.3431793539431</v>
       </c>
       <c r="I1">
-        <v>-155.274842959571</v>
+        <v>-155.27483845964301</v>
       </c>
       <c r="J1">
-        <v>985.92580625228595</v>
+        <v>985.92754876334197</v>
       </c>
       <c r="K1">
-        <v>261018.79096047001</v>
+        <v>261019.25953444699</v>
       </c>
       <c r="L1">
-        <v>2140372.5090097398</v>
+        <v>2140372.1717005498</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
@@ -3537,28 +3348,28 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>148</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>149</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>150</v>
       </c>
       <c r="H2">
-        <v>19.3422492027867</v>
+        <v>19.342245481691801</v>
       </c>
       <c r="I2">
-        <v>-155.275006874578</v>
+        <v>-155.275001275541</v>
       </c>
       <c r="J2">
-        <v>988.76415022369497</v>
+        <v>988.76633050572104</v>
       </c>
       <c r="K2">
-        <v>261000.204422888</v>
+        <v>261000.78744897901</v>
       </c>
       <c r="L2">
-        <v>2140269.4178015199</v>
+        <v>2140268.9980571698</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -3575,28 +3386,28 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>151</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>153</v>
       </c>
       <c r="H3">
-        <v>19.341149403306101</v>
+        <v>19.341145682213799</v>
       </c>
       <c r="I3">
-        <v>-155.27504517581599</v>
+        <v>-155.27503957681799</v>
       </c>
       <c r="J3">
-        <v>991.40076313074701</v>
+        <v>991.40295094717305</v>
       </c>
       <c r="K3">
-        <v>260994.57678232499</v>
+        <v>260995.15980849401</v>
       </c>
       <c r="L3">
-        <v>2140147.7004299099</v>
+        <v>2140147.2806861801</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -3613,28 +3424,28 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>154</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>156</v>
       </c>
       <c r="H4">
-        <v>19.340276336245498</v>
+        <v>19.3402725144831</v>
       </c>
       <c r="I4">
-        <v>-155.27491232313099</v>
+        <v>-155.27490657187599</v>
       </c>
       <c r="J4">
-        <v>989.19182635564403</v>
+        <v>989.19407010078396</v>
       </c>
       <c r="K4">
-        <v>261007.26761550101</v>
+        <v>261007.866500773</v>
       </c>
       <c r="L4">
-        <v>2140050.8503212999</v>
+        <v>2140050.4192215898</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -3651,28 +3462,28 @@
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>157</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>158</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>159</v>
       </c>
       <c r="H5">
-        <v>19.344135494514799</v>
+        <v>19.344132505076601</v>
       </c>
       <c r="I5">
-        <v>-155.27483920659699</v>
+        <v>-155.27483470664399</v>
       </c>
       <c r="J5">
-        <v>986.40392128098802</v>
+        <v>986.40569143928599</v>
       </c>
       <c r="K5">
-        <v>261020.574008747</v>
+        <v>261021.04258371401</v>
       </c>
       <c r="L5">
-        <v>2140478.0370945199</v>
+        <v>2140477.6998794</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -3689,28 +3500,28 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>160</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>161</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>162</v>
       </c>
       <c r="H6">
-        <v>19.345053111459599</v>
+        <v>19.345050122020101</v>
       </c>
       <c r="I6">
-        <v>-155.27468252020901</v>
+        <v>-155.27467802023801</v>
       </c>
       <c r="J6">
-        <v>991.69903662241995</v>
+        <v>991.70080269873097</v>
       </c>
       <c r="K6">
-        <v>261038.378056507</v>
+        <v>261038.84663082901</v>
       </c>
       <c r="L6">
-        <v>2140579.4194249101</v>
+        <v>2140579.0822097999</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
@@ -3727,28 +3538,28 @@
         <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>163</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>164</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="H7">
-        <v>19.345795269154699</v>
+        <v>19.3457924804733</v>
       </c>
       <c r="I7">
-        <v>-155.27508081857999</v>
+        <v>-155.27507662276901</v>
       </c>
       <c r="J7">
-        <v>990.57955728378204</v>
+        <v>990.58110264781897</v>
       </c>
       <c r="K7">
-        <v>260997.599879132</v>
+        <v>260998.03677715699</v>
       </c>
       <c r="L7">
-        <v>2140662.1423622002</v>
+        <v>2140661.8277944499</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
@@ -3765,28 +3576,28 @@
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>166</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>168</v>
       </c>
       <c r="H8">
-        <v>19.346700407210701</v>
+        <v>19.3466974169386</v>
       </c>
       <c r="I8">
-        <v>-155.27539305881399</v>
+        <v>-155.27538855878799</v>
       </c>
       <c r="J8">
-        <v>995.93569696601503</v>
+        <v>995.93741486407805</v>
       </c>
       <c r="K8">
-        <v>260966.10394528601</v>
+        <v>260966.572517908</v>
       </c>
       <c r="L8">
-        <v>2140762.7916603098</v>
+        <v>2140762.4543503602</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
@@ -3803,28 +3614,28 @@
         <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>169</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>171</v>
       </c>
       <c r="H9">
-        <v>19.347625040298901</v>
+        <v>19.347621711377901</v>
       </c>
       <c r="I9">
-        <v>-155.275860869371</v>
+        <v>-155.275855860051</v>
       </c>
       <c r="J9">
-        <v>1007.81247451436</v>
+        <v>1007.81441743765</v>
       </c>
       <c r="K9">
-        <v>260918.28725600199</v>
+        <v>260918.80885531299</v>
       </c>
       <c r="L9">
-        <v>2140865.8148236601</v>
+        <v>2140865.43931193</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
@@ -3841,28 +3652,28 @@
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>173</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>174</v>
       </c>
       <c r="H10">
-        <v>19.3486436940033</v>
+        <v>19.348640049475701</v>
       </c>
       <c r="I10">
-        <v>-155.27596115888301</v>
+        <v>-155.27595567416</v>
       </c>
       <c r="J10">
-        <v>1007.9816561779</v>
+        <v>1007.98379936256</v>
       </c>
       <c r="K10">
-        <v>260909.23249154899</v>
+        <v>260909.803588846</v>
       </c>
       <c r="L10">
-        <v>2140978.7395633999</v>
+        <v>2140978.3284489498</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
@@ -3879,28 +3690,28 @@
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>176</v>
       </c>
       <c r="G11" t="s">
-        <v>43</v>
+        <v>177</v>
       </c>
       <c r="H11">
-        <v>19.349556039029501</v>
+        <v>19.349552907707299</v>
       </c>
       <c r="I11">
-        <v>-155.27614618948701</v>
+        <v>-155.27614147785701</v>
       </c>
       <c r="J11">
-        <v>1018.5717479549299</v>
+        <v>1018.57355581224</v>
       </c>
       <c r="K11">
-        <v>260891.11720315699</v>
+        <v>260891.607798129</v>
       </c>
       <c r="L11">
-        <v>2141080.0110502699</v>
+        <v>2141079.6578272399</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
@@ -3917,28 +3728,28 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>178</v>
       </c>
       <c r="F12" t="s">
-        <v>46</v>
+        <v>179</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>180</v>
       </c>
       <c r="H12">
-        <v>19.350351514501501</v>
+        <v>19.350348383195499</v>
       </c>
       <c r="I12">
-        <v>-155.27668440450199</v>
+        <v>-155.27667969284099</v>
       </c>
       <c r="J12">
-        <v>1023.09743171092</v>
+        <v>1023.09923036583</v>
       </c>
       <c r="K12">
-        <v>260835.71460939801</v>
+        <v>260836.20520401301</v>
       </c>
       <c r="L12">
-        <v>2141168.8316265298</v>
+        <v>2141168.4784033499</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
@@ -3955,28 +3766,28 @@
         <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>181</v>
       </c>
       <c r="F13" t="s">
-        <v>50</v>
+        <v>182</v>
       </c>
       <c r="G13" t="s">
-        <v>51</v>
+        <v>183</v>
       </c>
       <c r="H13">
-        <v>19.351164578436698</v>
+        <v>19.351161230266399</v>
       </c>
       <c r="I13">
-        <v>-155.27709343461399</v>
+        <v>-155.27708839599001</v>
       </c>
       <c r="J13">
-        <v>1026.38728088327</v>
+        <v>1026.38923669327</v>
       </c>
       <c r="K13">
-        <v>260793.91459909</v>
+        <v>260794.439235264</v>
       </c>
       <c r="L13">
-        <v>2141259.42095643</v>
+        <v>2141259.04326763</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
@@ -3993,28 +3804,28 @@
         <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
+        <v>184</v>
       </c>
       <c r="F14" t="s">
-        <v>54</v>
+        <v>185</v>
       </c>
       <c r="G14" t="s">
-        <v>55</v>
+        <v>186</v>
       </c>
       <c r="H14">
-        <v>19.351316920120201</v>
+        <v>19.351313494199601</v>
       </c>
       <c r="I14">
-        <v>-155.277213624448</v>
+        <v>-155.27720846868399</v>
       </c>
       <c r="J14">
-        <v>1025.1353990156199</v>
+        <v>1025.13741926383</v>
       </c>
       <c r="K14">
-        <v>260781.505827118</v>
+        <v>260782.04265970699</v>
       </c>
       <c r="L14">
-        <v>2141276.4547693799</v>
+        <v>2141276.0683093402</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
@@ -4031,28 +3842,28 @@
         <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>187</v>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>188</v>
       </c>
       <c r="G15" t="s">
-        <v>59</v>
+        <v>189</v>
       </c>
       <c r="H15">
-        <v>19.351352347340999</v>
+        <v>19.3513485819416</v>
       </c>
       <c r="I15">
-        <v>-155.27766611718499</v>
+        <v>-155.27766044999899</v>
       </c>
       <c r="J15">
-        <v>1023.7495839307099</v>
+        <v>1023.75178996753</v>
       </c>
       <c r="K15">
-        <v>260734.00404101299</v>
+        <v>260734.59412362601</v>
       </c>
       <c r="L15">
-        <v>2141281.0039673601</v>
+        <v>2141280.5792101002</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
@@ -4069,28 +3880,28 @@
         <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>61</v>
+        <v>190</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
+        <v>191</v>
       </c>
       <c r="G16" t="s">
-        <v>63</v>
+        <v>192</v>
       </c>
       <c r="H16">
-        <v>19.3520317780517</v>
+        <v>19.3520281375921</v>
       </c>
       <c r="I16">
-        <v>-155.27748523319599</v>
+        <v>-155.27747975478701</v>
       </c>
       <c r="J16">
-        <v>1023.39858260471</v>
+        <v>1023.400629499</v>
       </c>
       <c r="K16">
-        <v>260754.00494118</v>
+        <v>260754.575364908</v>
       </c>
       <c r="L16">
-        <v>2141355.9805122698</v>
+        <v>2141355.5698503102</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
@@ -4107,28 +3918,28 @@
         <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>65</v>
+        <v>193</v>
       </c>
       <c r="F17" t="s">
-        <v>66</v>
+        <v>194</v>
       </c>
       <c r="G17" t="s">
-        <v>67</v>
+        <v>195</v>
       </c>
       <c r="H17">
-        <v>19.3522347942301</v>
+        <v>19.352231722628499</v>
       </c>
       <c r="I17">
-        <v>-155.27740196368001</v>
+        <v>-155.27739734249201</v>
       </c>
       <c r="J17">
-        <v>1019.5179990828</v>
+        <v>1019.51967524085</v>
       </c>
       <c r="K17">
-        <v>260763.052112504</v>
+        <v>260763.53327897799</v>
       </c>
       <c r="L17">
-        <v>2141378.3432877702</v>
+        <v>2141377.9967976199</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
@@ -4145,28 +3956,28 @@
         <v>19</v>
       </c>
       <c r="E18" t="s">
-        <v>69</v>
+        <v>196</v>
       </c>
       <c r="F18" t="s">
-        <v>70</v>
+        <v>197</v>
       </c>
       <c r="G18" t="s">
-        <v>71</v>
+        <v>198</v>
       </c>
       <c r="H18">
-        <v>19.3530793777079</v>
+        <v>19.353075500812899</v>
       </c>
       <c r="I18">
-        <v>-155.27770507729599</v>
+        <v>-155.27769924312</v>
       </c>
       <c r="J18">
-        <v>1020.75809106138</v>
+        <v>1020.7604247015</v>
       </c>
       <c r="K18">
-        <v>260732.429953432</v>
+        <v>260733.03741568699</v>
       </c>
       <c r="L18">
-        <v>2141472.27604362</v>
+        <v>2141471.8387093698</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
@@ -4183,28 +3994,28 @@
         <v>13</v>
       </c>
       <c r="E19" t="s">
-        <v>73</v>
+        <v>199</v>
       </c>
       <c r="F19" t="s">
-        <v>74</v>
+        <v>200</v>
       </c>
       <c r="G19" t="s">
-        <v>75</v>
+        <v>201</v>
       </c>
       <c r="H19">
-        <v>19.3540677600067</v>
+        <v>19.354064335208601</v>
       </c>
       <c r="I19">
-        <v>-155.277931535726</v>
+        <v>-155.277926381589</v>
       </c>
       <c r="J19">
-        <v>1024.2680139886199</v>
+        <v>1024.26996384468</v>
       </c>
       <c r="K19">
-        <v>260710.07380049099</v>
+        <v>260710.610452633</v>
       </c>
       <c r="L19">
-        <v>2141582.0242142002</v>
+        <v>2141581.6378773502</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
@@ -4221,28 +4032,28 @@
         <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="F20" t="s">
-        <v>78</v>
+        <v>203</v>
       </c>
       <c r="G20" t="s">
-        <v>79</v>
+        <v>204</v>
       </c>
       <c r="H20">
-        <v>19.354882838274399</v>
+        <v>19.354879848799701</v>
       </c>
       <c r="I20">
-        <v>-155.2785161976</v>
+        <v>-155.27851169857399</v>
       </c>
       <c r="J20">
-        <v>1026.2075206004099</v>
+        <v>1026.20924628526</v>
       </c>
       <c r="K20">
-        <v>260649.82140262201</v>
+        <v>260650.289840532</v>
       </c>
       <c r="L20">
-        <v>2141673.0804483299</v>
+        <v>2141672.7432164601</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
@@ -4259,28 +4070,28 @@
         <v>14</v>
       </c>
       <c r="E21" t="s">
-        <v>81</v>
+        <v>205</v>
       </c>
       <c r="F21" t="s">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="G21" t="s">
-        <v>83</v>
+        <v>207</v>
       </c>
       <c r="H21">
-        <v>19.355705976243598</v>
+        <v>19.355702986774801</v>
       </c>
       <c r="I21">
-        <v>-155.278723509538</v>
+        <v>-155.278719010488</v>
       </c>
       <c r="J21">
-        <v>1027.7504946188999</v>
+        <v>1027.7522139344401</v>
       </c>
       <c r="K21">
-        <v>260629.236941371</v>
+        <v>260629.70537905101</v>
       </c>
       <c r="L21">
-        <v>2141764.50629147</v>
+        <v>2141764.1690593599</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
@@ -4297,28 +4108,28 @@
         <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>85</v>
+        <v>208</v>
       </c>
       <c r="F22" t="s">
-        <v>86</v>
+        <v>209</v>
       </c>
       <c r="G22" t="s">
-        <v>87</v>
+        <v>210</v>
       </c>
       <c r="H22">
-        <v>19.352596430382299</v>
+        <v>19.352592924051098</v>
       </c>
       <c r="I22">
-        <v>-155.27745198797999</v>
+        <v>-155.27744671203899</v>
       </c>
       <c r="J22">
-        <v>1017.2146280752499</v>
+        <v>1017.21663722023</v>
       </c>
       <c r="K22">
-        <v>260758.322670647</v>
+        <v>260758.87201043899</v>
       </c>
       <c r="L22">
-        <v>2141418.4531947202</v>
+        <v>2141418.05766387</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
@@ -4335,28 +4146,28 @@
         <v>14</v>
       </c>
       <c r="E23" t="s">
-        <v>89</v>
+        <v>211</v>
       </c>
       <c r="F23" t="s">
-        <v>90</v>
+        <v>212</v>
       </c>
       <c r="G23" t="s">
-        <v>91</v>
+        <v>213</v>
       </c>
       <c r="H23">
-        <v>19.356582130826599</v>
+        <v>19.3565791413731</v>
       </c>
       <c r="I23">
-        <v>-155.27916159604999</v>
+        <v>-155.27915709697399</v>
       </c>
       <c r="J23">
-        <v>1037.26150078513</v>
+        <v>1037.26321163028</v>
       </c>
       <c r="K23">
-        <v>260584.478311866</v>
+        <v>260584.94674878701</v>
       </c>
       <c r="L23">
-        <v>2141862.1221397398</v>
+        <v>2141861.7849077499</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
@@ -4373,28 +4184,28 @@
         <v>14</v>
       </c>
       <c r="E24" t="s">
-        <v>93</v>
+        <v>214</v>
       </c>
       <c r="F24" t="s">
-        <v>94</v>
+        <v>215</v>
       </c>
       <c r="G24" t="s">
-        <v>95</v>
+        <v>216</v>
       </c>
       <c r="H24">
-        <v>19.357509254857799</v>
+        <v>19.357506028547199</v>
       </c>
       <c r="I24">
-        <v>-155.279529749836</v>
+        <v>-155.279524893337</v>
       </c>
       <c r="J24">
-        <v>1044.7111901035501</v>
+        <v>1044.71302068513</v>
       </c>
       <c r="K24">
-        <v>260547.14380180099</v>
+        <v>260547.649450258</v>
       </c>
       <c r="L24">
-        <v>2141965.2845753101</v>
+        <v>2141964.9206213402</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
@@ -4411,28 +4222,28 @@
         <v>14</v>
       </c>
       <c r="E25" t="s">
-        <v>97</v>
+        <v>217</v>
       </c>
       <c r="F25" t="s">
-        <v>98</v>
+        <v>218</v>
       </c>
       <c r="G25" t="s">
-        <v>99</v>
+        <v>219</v>
       </c>
       <c r="H25">
-        <v>19.358450698240102</v>
+        <v>19.358447273231601</v>
       </c>
       <c r="I25">
-        <v>-155.27966216733699</v>
+        <v>-155.27965701344101</v>
       </c>
       <c r="J25">
-        <v>1046.8114320505399</v>
+        <v>1046.8134231660499</v>
       </c>
       <c r="K25">
-        <v>260534.60371828199</v>
+        <v>260535.14032580299</v>
       </c>
       <c r="L25">
-        <v>2142069.70568028</v>
+        <v>2142069.3193131499</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
@@ -4449,28 +4260,28 @@
         <v>15</v>
       </c>
       <c r="E26" t="s">
-        <v>101</v>
+        <v>220</v>
       </c>
       <c r="F26" t="s">
-        <v>102</v>
+        <v>221</v>
       </c>
       <c r="G26" t="s">
-        <v>103</v>
+        <v>222</v>
       </c>
       <c r="H26">
-        <v>19.358955131389699</v>
+        <v>19.358952342320599</v>
       </c>
       <c r="I26">
-        <v>-155.279776467494</v>
+        <v>-155.279772269972</v>
       </c>
       <c r="J26">
-        <v>1048.7735292119901</v>
+        <v>1048.77513417881</v>
       </c>
       <c r="K26">
-        <v>260523.32921213401</v>
+        <v>260523.766243883</v>
       </c>
       <c r="L26">
-        <v>2142125.7155036102</v>
+        <v>2142125.4008740499</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
@@ -4487,28 +4298,28 @@
         <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>105</v>
+        <v>223</v>
       </c>
       <c r="F27" t="s">
-        <v>106</v>
+        <v>224</v>
       </c>
       <c r="G27" t="s">
-        <v>107</v>
+        <v>225</v>
       </c>
       <c r="H27">
-        <v>19.359511875380601</v>
+        <v>19.359508886074501</v>
       </c>
       <c r="I27">
-        <v>-155.279950648891</v>
+        <v>-155.27994615058799</v>
       </c>
       <c r="J27">
-        <v>1042.4758154163101</v>
+        <v>1042.47746374179</v>
       </c>
       <c r="K27">
-        <v>260505.83848992601</v>
+        <v>260506.30683539499</v>
       </c>
       <c r="L27">
-        <v>2142187.6003027</v>
+        <v>2142187.2630849001</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
@@ -4525,28 +4336,28 @@
         <v>16</v>
       </c>
       <c r="E28" t="s">
-        <v>109</v>
+        <v>226</v>
       </c>
       <c r="F28" t="s">
-        <v>110</v>
+        <v>227</v>
       </c>
       <c r="G28" t="s">
-        <v>111</v>
+        <v>228</v>
       </c>
       <c r="H28">
-        <v>19.360233840743302</v>
+        <v>19.360230532934601</v>
       </c>
       <c r="I28">
-        <v>-155.280342824928</v>
+        <v>-155.28033784646101</v>
       </c>
       <c r="J28">
-        <v>1032.05987678468</v>
+        <v>1032.0617270078501</v>
       </c>
       <c r="K28">
-        <v>260465.68104351399</v>
+        <v>260466.19937939101</v>
       </c>
       <c r="L28">
-        <v>2142268.0810039099</v>
+        <v>2142267.7078537201</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
@@ -4563,28 +4374,28 @@
         <v>16</v>
       </c>
       <c r="E29" t="s">
-        <v>113</v>
+        <v>229</v>
       </c>
       <c r="F29" t="s">
-        <v>114</v>
+        <v>230</v>
       </c>
       <c r="G29" t="s">
-        <v>115</v>
+        <v>231</v>
       </c>
       <c r="H29">
-        <v>19.361222245098801</v>
+        <v>19.361218819276999</v>
       </c>
       <c r="I29">
-        <v>-155.28048788928501</v>
+        <v>-155.28048273314801</v>
       </c>
       <c r="J29">
-        <v>1035.2574431421201</v>
+        <v>1035.25936860498</v>
       </c>
       <c r="K29">
-        <v>260451.88150152101</v>
+        <v>260452.41833188699</v>
       </c>
       <c r="L29">
-        <v>2142377.7193815401</v>
+        <v>2142377.3329175301</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
@@ -4601,28 +4412,28 @@
         <v>17</v>
       </c>
       <c r="E30" t="s">
-        <v>117</v>
+        <v>232</v>
       </c>
       <c r="F30" t="s">
-        <v>118</v>
+        <v>233</v>
       </c>
       <c r="G30" t="s">
-        <v>119</v>
+        <v>234</v>
       </c>
       <c r="H30">
-        <v>19.362174733294601</v>
+        <v>19.362171780113901</v>
       </c>
       <c r="I30">
-        <v>-155.28074578423599</v>
+        <v>-155.280741341154</v>
       </c>
       <c r="J30">
-        <v>1037.2565095555001</v>
+        <v>1037.2582220202301</v>
       </c>
       <c r="K30">
-        <v>260426.172850437</v>
+        <v>260426.63543622399</v>
       </c>
       <c r="L30">
-        <v>2142483.5376845398</v>
+        <v>2142483.2045400799</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
@@ -4639,28 +4450,28 @@
         <v>17</v>
       </c>
       <c r="E31" t="s">
-        <v>121</v>
+        <v>235</v>
       </c>
       <c r="F31" t="s">
-        <v>122</v>
+        <v>236</v>
       </c>
       <c r="G31" t="s">
-        <v>123</v>
+        <v>237</v>
       </c>
       <c r="H31">
-        <v>19.362699984335201</v>
+        <v>19.3626967558377</v>
       </c>
       <c r="I31">
-        <v>-155.28110988381599</v>
+        <v>-155.28110502579599</v>
       </c>
       <c r="J31">
-        <v>1039.38287216052</v>
+        <v>1039.3847553962801</v>
       </c>
       <c r="K31">
-        <v>260388.679327124</v>
+        <v>260389.18511188301</v>
       </c>
       <c r="L31">
-        <v>2142542.19930596</v>
+        <v>2142541.8351010499</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
@@ -4677,28 +4488,28 @@
         <v>18</v>
       </c>
       <c r="E32" t="s">
-        <v>125</v>
+        <v>238</v>
       </c>
       <c r="F32" t="s">
-        <v>126</v>
+        <v>239</v>
       </c>
       <c r="G32" t="s">
-        <v>127</v>
+        <v>240</v>
       </c>
       <c r="H32">
-        <v>19.363283974014699</v>
+        <v>19.363280990428699</v>
       </c>
       <c r="I32">
-        <v>-155.28086785347</v>
+        <v>-155.280863363625</v>
       </c>
       <c r="J32">
-        <v>1045.5024055428801</v>
+        <v>1045.5040402058501</v>
       </c>
       <c r="K32">
-        <v>260414.96700350399</v>
+        <v>260415.43445529701</v>
       </c>
       <c r="L32">
-        <v>2142606.5233779601</v>
+        <v>2142606.1868014201</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
@@ -4715,28 +4526,28 @@
         <v>19</v>
       </c>
       <c r="E33" t="s">
-        <v>129</v>
+        <v>241</v>
       </c>
       <c r="F33" t="s">
-        <v>130</v>
+        <v>242</v>
       </c>
       <c r="G33" t="s">
-        <v>131</v>
+        <v>243</v>
       </c>
       <c r="H33">
-        <v>19.363817467705299</v>
+        <v>19.363814238114099</v>
       </c>
       <c r="I33">
-        <v>-155.28121872825301</v>
+        <v>-155.28121386847801</v>
       </c>
       <c r="J33">
-        <v>1050.9252408538</v>
+        <v>1050.9271619487599</v>
       </c>
       <c r="K33">
-        <v>260378.87559557499</v>
+        <v>260379.38155926301</v>
       </c>
       <c r="L33">
-        <v>2142666.07934003</v>
+        <v>2142665.71501088</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
@@ -4753,28 +4564,28 @@
         <v>19</v>
       </c>
       <c r="E34" t="s">
-        <v>133</v>
+        <v>244</v>
       </c>
       <c r="F34" t="s">
-        <v>134</v>
+        <v>245</v>
       </c>
       <c r="G34" t="s">
-        <v>135</v>
+        <v>246</v>
       </c>
       <c r="H34">
-        <v>19.364508830352101</v>
+        <v>19.364505322649599</v>
       </c>
       <c r="I34">
-        <v>-155.28122344007701</v>
+        <v>-155.28121816150301</v>
       </c>
       <c r="J34">
-        <v>1050.5467565516001</v>
+        <v>1050.5488214483501</v>
       </c>
       <c r="K34">
-        <v>260379.39154994601</v>
+        <v>260379.941113635</v>
       </c>
       <c r="L34">
-        <v>2142742.63430849</v>
+        <v>2142742.2386050001</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
@@ -4791,28 +4602,28 @@
         <v>19</v>
       </c>
       <c r="E35" t="s">
-        <v>137</v>
+        <v>247</v>
       </c>
       <c r="F35" t="s">
-        <v>138</v>
+        <v>248</v>
       </c>
       <c r="G35" t="s">
-        <v>139</v>
+        <v>249</v>
       </c>
       <c r="H35">
-        <v>19.365525461095299</v>
+        <v>19.3655222315152</v>
       </c>
       <c r="I35">
-        <v>-155.28175444009699</v>
+        <v>-155.28174958025599</v>
       </c>
       <c r="J35">
-        <v>1044.5293106157301</v>
+        <v>1044.5312165478199</v>
       </c>
       <c r="K35">
-        <v>260325.07913261</v>
+        <v>260325.58509657101</v>
       </c>
       <c r="L35">
-        <v>2142855.9339484102</v>
+        <v>2142855.5696181501</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
@@ -4829,28 +4640,28 @@
         <v>19</v>
       </c>
       <c r="E36" t="s">
-        <v>141</v>
+        <v>250</v>
       </c>
       <c r="F36" t="s">
-        <v>142</v>
+        <v>251</v>
       </c>
       <c r="G36" t="s">
-        <v>143</v>
+        <v>252</v>
       </c>
       <c r="H36">
-        <v>19.366477271923401</v>
+        <v>19.366474281168401</v>
       </c>
       <c r="I36">
-        <v>-155.28193153140299</v>
+        <v>-155.28192703067899</v>
       </c>
       <c r="J36">
-        <v>1045.9983652122301</v>
+        <v>1046.0001287683799</v>
       </c>
       <c r="K36">
-        <v>260307.86232966799</v>
+        <v>260308.33090244501</v>
       </c>
       <c r="L36">
-        <v>2142961.5654290798</v>
+        <v>2142961.2280396</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
@@ -4867,28 +4678,28 @@
         <v>19</v>
       </c>
       <c r="E37" t="s">
-        <v>145</v>
+        <v>253</v>
       </c>
       <c r="F37" t="s">
-        <v>146</v>
+        <v>254</v>
       </c>
       <c r="G37" t="s">
-        <v>147</v>
+        <v>255</v>
       </c>
       <c r="H37">
-        <v>19.367353545627001</v>
+        <v>19.367349833582601</v>
       </c>
       <c r="I37">
-        <v>-155.28231572495801</v>
+        <v>-155.282310138177</v>
       </c>
       <c r="J37">
-        <v>1048.2000171775001</v>
+        <v>1048.2021934157201</v>
       </c>
       <c r="K37">
-        <v>260268.77251036899</v>
+        <v>260269.35414966999</v>
       </c>
       <c r="L37">
-        <v>2143059.1210238002</v>
+        <v>2143058.7022625199</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
@@ -4905,28 +4716,28 @@
         <v>19</v>
       </c>
       <c r="E38" t="s">
-        <v>149</v>
+        <v>256</v>
       </c>
       <c r="F38" t="s">
-        <v>150</v>
+        <v>257</v>
       </c>
       <c r="G38" t="s">
-        <v>151</v>
+        <v>258</v>
       </c>
       <c r="H38">
-        <v>19.368320022747501</v>
+        <v>19.368316310711698</v>
       </c>
       <c r="I38">
-        <v>-155.28249982033901</v>
+        <v>-155.28249423352401</v>
       </c>
       <c r="J38">
-        <v>1053.15301344823</v>
+        <v>1053.15518097673</v>
       </c>
       <c r="K38">
-        <v>260250.84184558599</v>
+        <v>260251.42348423699</v>
       </c>
       <c r="L38">
-        <v>2143166.38623336</v>
+        <v>2143165.9674719502</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
@@ -4943,28 +4754,28 @@
         <v>17</v>
       </c>
       <c r="E39" t="s">
-        <v>153</v>
+        <v>259</v>
       </c>
       <c r="F39" t="s">
-        <v>154</v>
+        <v>260</v>
       </c>
       <c r="G39" t="s">
-        <v>155</v>
+        <v>261</v>
       </c>
       <c r="H39">
-        <v>19.3690522113295</v>
+        <v>19.369048983597501</v>
       </c>
       <c r="I39">
-        <v>-155.28307363909099</v>
+        <v>-155.28306878211799</v>
       </c>
       <c r="J39">
-        <v>1053.98347138241</v>
+        <v>1053.98537789937</v>
       </c>
       <c r="K39">
-        <v>260191.61594138999</v>
+        <v>260192.12159248799</v>
       </c>
       <c r="L39">
-        <v>2143248.2522274102</v>
+        <v>2143247.8881004299</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
@@ -4981,28 +4792,28 @@
         <v>16</v>
       </c>
       <c r="E40" t="s">
-        <v>157</v>
+        <v>262</v>
       </c>
       <c r="F40" t="s">
-        <v>158</v>
+        <v>263</v>
       </c>
       <c r="G40" t="s">
-        <v>159</v>
+        <v>264</v>
       </c>
       <c r="H40">
-        <v>19.3698762708757</v>
+        <v>19.369873044970699</v>
       </c>
       <c r="I40">
-        <v>-155.28293370991301</v>
+        <v>-155.282928853784</v>
       </c>
       <c r="J40">
-        <v>1056.4455800904</v>
+        <v>1056.44750952907</v>
       </c>
       <c r="K40">
-        <v>260207.52624697599</v>
+        <v>260208.03180947201</v>
       </c>
       <c r="L40">
-        <v>2143339.2987151798</v>
+        <v>2143338.9347918299</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
@@ -5019,28 +4830,28 @@
         <v>17</v>
       </c>
       <c r="E41" t="s">
-        <v>161</v>
+        <v>265</v>
       </c>
       <c r="F41" t="s">
-        <v>162</v>
+        <v>266</v>
       </c>
       <c r="G41" t="s">
-        <v>163</v>
+        <v>267</v>
       </c>
       <c r="H41">
-        <v>19.370409729321601</v>
+        <v>19.3704065016051</v>
       </c>
       <c r="I41">
-        <v>-155.28360670162499</v>
+        <v>-155.283601844602</v>
       </c>
       <c r="J41">
-        <v>1056.3910780428</v>
+        <v>1056.3929716125101</v>
       </c>
       <c r="K41">
-        <v>260137.58904180999</v>
+        <v>260138.094692574</v>
       </c>
       <c r="L41">
-        <v>2143399.29911929</v>
+        <v>2143398.93499183</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
@@ -5057,28 +4868,28 @@
         <v>15</v>
       </c>
       <c r="E42" t="s">
-        <v>165</v>
+        <v>268</v>
       </c>
       <c r="F42" t="s">
-        <v>166</v>
+        <v>269</v>
       </c>
       <c r="G42" t="s">
-        <v>167</v>
+        <v>270</v>
       </c>
       <c r="H42">
-        <v>19.371342943851602</v>
+        <v>19.371339717950399</v>
       </c>
       <c r="I42">
-        <v>-155.283864481764</v>
+        <v>-155.28385962770199</v>
       </c>
       <c r="J42">
-        <v>1057.5187126379501</v>
+        <v>1057.5206319214799</v>
       </c>
       <c r="K42">
-        <v>260111.86824770499</v>
+        <v>260112.37358654101</v>
       </c>
       <c r="L42">
-        <v>2143502.9841597201</v>
+        <v>2143502.6202362501</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
@@ -5095,28 +4906,28 @@
         <v>15</v>
       </c>
       <c r="E43" t="s">
-        <v>169</v>
+        <v>271</v>
       </c>
       <c r="F43" t="s">
-        <v>170</v>
+        <v>272</v>
       </c>
       <c r="G43" t="s">
-        <v>171</v>
+        <v>273</v>
       </c>
       <c r="H43">
-        <v>19.3723409297004</v>
+        <v>19.3723384174661</v>
       </c>
       <c r="I43">
-        <v>-155.284145420248</v>
+        <v>-155.28414163978499</v>
       </c>
       <c r="J43">
-        <v>1057.5621444014801</v>
+        <v>1057.56363508198</v>
       </c>
       <c r="K43">
-        <v>260083.80924870499</v>
+        <v>260084.20281617201</v>
       </c>
       <c r="L43">
-        <v>2143613.8730432899</v>
+        <v>2143613.58962938</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.35">
@@ -5133,28 +4944,28 @@
         <v>15</v>
       </c>
       <c r="E44" t="s">
-        <v>173</v>
+        <v>274</v>
       </c>
       <c r="F44" t="s">
-        <v>174</v>
+        <v>275</v>
       </c>
       <c r="G44" t="s">
-        <v>175</v>
+        <v>276</v>
       </c>
       <c r="H44">
-        <v>19.372889529407701</v>
+        <v>19.372886315894601</v>
       </c>
       <c r="I44">
-        <v>-155.28458835594</v>
+        <v>-155.284583519835</v>
       </c>
       <c r="J44">
-        <v>1057.91453149263</v>
+        <v>1057.9164596386299</v>
       </c>
       <c r="K44">
-        <v>260038.069775957</v>
+        <v>260038.57323944601</v>
       </c>
       <c r="L44">
-        <v>2143675.2306295801</v>
+        <v>2143674.8680999302</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
@@ -5171,28 +4982,28 @@
         <v>15</v>
       </c>
       <c r="E45" t="s">
-        <v>177</v>
+        <v>277</v>
       </c>
       <c r="F45" t="s">
-        <v>178</v>
+        <v>278</v>
       </c>
       <c r="G45" t="s">
-        <v>179</v>
+        <v>279</v>
       </c>
       <c r="H45">
-        <v>19.373888187726902</v>
+        <v>19.373884974169901</v>
       </c>
       <c r="I45">
-        <v>-155.28283780185899</v>
+        <v>-155.28283296576399</v>
       </c>
       <c r="J45">
-        <v>1062.89607947785</v>
+        <v>1062.8980160690801</v>
       </c>
       <c r="K45">
-        <v>260223.47803214801</v>
+        <v>260223.98149440199</v>
       </c>
       <c r="L45">
-        <v>2143783.3699936601</v>
+        <v>2143783.0074643302</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
@@ -5209,66 +5020,66 @@
         <v>14</v>
       </c>
       <c r="E46" t="s">
-        <v>181</v>
+        <v>280</v>
       </c>
       <c r="F46" t="s">
-        <v>182</v>
+        <v>281</v>
       </c>
       <c r="G46" t="s">
-        <v>183</v>
+        <v>282</v>
       </c>
       <c r="H46">
-        <v>19.375255587726201</v>
+        <v>19.375251995270698</v>
       </c>
       <c r="I46">
-        <v>-155.28320017152299</v>
+        <v>-155.28319476551201</v>
       </c>
       <c r="J46">
-        <v>1065.2102915001999</v>
+        <v>1065.2124431403399</v>
       </c>
       <c r="K46">
-        <v>260187.403473604</v>
+        <v>260187.96626080101</v>
       </c>
       <c r="L46">
-        <v>2143935.2739089001</v>
+        <v>2143934.8686337299</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>47</v>
       </c>
-      <c r="B47">
-        <v>2017</v>
-      </c>
-      <c r="C47">
-        <v>7</v>
-      </c>
-      <c r="D47">
-        <v>20</v>
+      <c r="B47" t="s">
+        <v>143</v>
+      </c>
+      <c r="C47" t="s">
+        <v>143</v>
+      </c>
+      <c r="D47" t="s">
+        <v>143</v>
       </c>
       <c r="E47" t="s">
-        <v>185</v>
+        <v>143</v>
       </c>
       <c r="F47" t="s">
-        <v>186</v>
+        <v>143</v>
       </c>
       <c r="G47" t="s">
-        <v>187</v>
-      </c>
-      <c r="H47">
-        <v>19.339689901257099</v>
-      </c>
-      <c r="I47">
-        <v>-155.27578957936899</v>
-      </c>
-      <c r="J47">
-        <v>988.81693084631104</v>
-      </c>
-      <c r="K47">
-        <v>260914.21410044801</v>
-      </c>
-      <c r="L47">
-        <v>2139987.1331703598</v>
+        <v>143</v>
+      </c>
+      <c r="H47" t="s">
+        <v>144</v>
+      </c>
+      <c r="I47" t="s">
+        <v>144</v>
+      </c>
+      <c r="J47" t="s">
+        <v>144</v>
+      </c>
+      <c r="K47" t="s">
+        <v>144</v>
+      </c>
+      <c r="L47" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
@@ -5285,66 +5096,66 @@
         <v>20</v>
       </c>
       <c r="E48" t="s">
-        <v>189</v>
+        <v>283</v>
       </c>
       <c r="F48" t="s">
-        <v>190</v>
+        <v>284</v>
       </c>
       <c r="G48" t="s">
-        <v>191</v>
+        <v>285</v>
       </c>
       <c r="H48">
-        <v>19.339248648620199</v>
+        <v>19.339247228539499</v>
       </c>
       <c r="I48">
-        <v>-155.27672736000301</v>
+        <v>-155.27672522271399</v>
       </c>
       <c r="J48">
-        <v>985.49161116406299</v>
+        <v>985.49236773327004</v>
       </c>
       <c r="K48">
-        <v>260815.010429724</v>
+        <v>260815.23298858001</v>
       </c>
       <c r="L48">
-        <v>2139939.57485185</v>
+        <v>2139939.4146622</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>49</v>
       </c>
-      <c r="B49">
-        <v>2017</v>
-      </c>
-      <c r="C49">
-        <v>7</v>
-      </c>
-      <c r="D49">
-        <v>20</v>
+      <c r="B49" t="s">
+        <v>143</v>
+      </c>
+      <c r="C49" t="s">
+        <v>143</v>
+      </c>
+      <c r="D49" t="s">
+        <v>143</v>
       </c>
       <c r="E49" t="s">
-        <v>193</v>
+        <v>143</v>
       </c>
       <c r="F49" t="s">
-        <v>194</v>
+        <v>143</v>
       </c>
       <c r="G49" t="s">
-        <v>195</v>
-      </c>
-      <c r="H49">
-        <v>19.338526080040602</v>
-      </c>
-      <c r="I49">
-        <v>-155.27767047792099</v>
-      </c>
-      <c r="J49">
-        <v>978.011337674223</v>
-      </c>
-      <c r="K49">
-        <v>260714.834990164</v>
-      </c>
-      <c r="L49">
-        <v>2139860.87693433</v>
+        <v>143</v>
+      </c>
+      <c r="H49" t="s">
+        <v>144</v>
+      </c>
+      <c r="I49" t="s">
+        <v>144</v>
+      </c>
+      <c r="J49" t="s">
+        <v>144</v>
+      </c>
+      <c r="K49" t="s">
+        <v>144</v>
+      </c>
+      <c r="L49" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
@@ -5361,66 +5172,66 @@
         <v>20</v>
       </c>
       <c r="E50" t="s">
-        <v>197</v>
+        <v>286</v>
       </c>
       <c r="F50" t="s">
-        <v>198</v>
+        <v>287</v>
       </c>
       <c r="G50" t="s">
-        <v>199</v>
+        <v>288</v>
       </c>
       <c r="H50">
-        <v>19.337537538409499</v>
+        <v>19.337535876211099</v>
       </c>
       <c r="I50">
-        <v>-155.27853425757701</v>
+        <v>-155.27853175601999</v>
       </c>
       <c r="J50">
-        <v>974.56317481212295</v>
+        <v>974.56421723309904</v>
       </c>
       <c r="K50">
-        <v>260622.609188748</v>
+        <v>260622.869680412</v>
       </c>
       <c r="L50">
-        <v>2139752.6209018999</v>
+        <v>2139752.4333981299</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>51</v>
       </c>
-      <c r="B51">
-        <v>2017</v>
-      </c>
-      <c r="C51">
-        <v>7</v>
-      </c>
-      <c r="D51">
-        <v>20</v>
+      <c r="B51" t="s">
+        <v>143</v>
+      </c>
+      <c r="C51" t="s">
+        <v>143</v>
+      </c>
+      <c r="D51" t="s">
+        <v>143</v>
       </c>
       <c r="E51" t="s">
-        <v>201</v>
+        <v>143</v>
       </c>
       <c r="F51" t="s">
-        <v>202</v>
+        <v>143</v>
       </c>
       <c r="G51" t="s">
-        <v>203</v>
-      </c>
-      <c r="H51">
-        <v>19.336677429834602</v>
-      </c>
-      <c r="I51">
-        <v>-155.278861070376</v>
-      </c>
-      <c r="J51">
-        <v>968.32808201946295</v>
-      </c>
-      <c r="K51">
-        <v>260587.00589790501</v>
-      </c>
-      <c r="L51">
-        <v>2139657.8416907</v>
+        <v>143</v>
+      </c>
+      <c r="H51" t="s">
+        <v>144</v>
+      </c>
+      <c r="I51" t="s">
+        <v>144</v>
+      </c>
+      <c r="J51" t="s">
+        <v>144</v>
+      </c>
+      <c r="K51" t="s">
+        <v>144</v>
+      </c>
+      <c r="L51" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
@@ -5437,104 +5248,104 @@
         <v>21</v>
       </c>
       <c r="E52" t="s">
-        <v>205</v>
+        <v>289</v>
       </c>
       <c r="F52" t="s">
-        <v>206</v>
+        <v>290</v>
       </c>
       <c r="G52" t="s">
-        <v>207</v>
+        <v>291</v>
       </c>
       <c r="H52">
-        <v>19.3359066292298</v>
+        <v>19.335905207800199</v>
       </c>
       <c r="I52">
-        <v>-155.27944245545299</v>
+        <v>-155.27944031684299</v>
       </c>
       <c r="J52">
-        <v>956.25606688205198</v>
+        <v>956.25695410091396</v>
       </c>
       <c r="K52">
-        <v>260524.776482277</v>
+        <v>260524.99918077601</v>
       </c>
       <c r="L52">
-        <v>2139573.3033755599</v>
+        <v>2139573.14303145</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>53</v>
       </c>
-      <c r="B53">
-        <v>2017</v>
-      </c>
-      <c r="C53">
-        <v>7</v>
-      </c>
-      <c r="D53">
-        <v>21</v>
+      <c r="B53" t="s">
+        <v>143</v>
+      </c>
+      <c r="C53" t="s">
+        <v>143</v>
+      </c>
+      <c r="D53" t="s">
+        <v>143</v>
       </c>
       <c r="E53" t="s">
-        <v>209</v>
+        <v>143</v>
       </c>
       <c r="F53" t="s">
-        <v>210</v>
+        <v>143</v>
       </c>
       <c r="G53" t="s">
-        <v>211</v>
-      </c>
-      <c r="H53">
-        <v>19.3350256658848</v>
-      </c>
-      <c r="I53">
-        <v>-155.279599786815</v>
-      </c>
-      <c r="J53">
-        <v>950.201038988307</v>
-      </c>
-      <c r="K53">
-        <v>260506.954978458</v>
-      </c>
-      <c r="L53">
-        <v>2139475.9804406399</v>
+        <v>143</v>
+      </c>
+      <c r="H53" t="s">
+        <v>144</v>
+      </c>
+      <c r="I53" t="s">
+        <v>144</v>
+      </c>
+      <c r="J53" t="s">
+        <v>144</v>
+      </c>
+      <c r="K53" t="s">
+        <v>144</v>
+      </c>
+      <c r="L53" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>54</v>
       </c>
-      <c r="B54">
-        <v>2017</v>
-      </c>
-      <c r="C54">
-        <v>7</v>
-      </c>
-      <c r="D54">
-        <v>21</v>
+      <c r="B54" t="s">
+        <v>143</v>
+      </c>
+      <c r="C54" t="s">
+        <v>143</v>
+      </c>
+      <c r="D54" t="s">
+        <v>143</v>
       </c>
       <c r="E54" t="s">
-        <v>213</v>
+        <v>143</v>
       </c>
       <c r="F54" t="s">
-        <v>214</v>
+        <v>143</v>
       </c>
       <c r="G54" t="s">
-        <v>215</v>
-      </c>
-      <c r="H54">
-        <v>19.334603389567398</v>
-      </c>
-      <c r="I54">
-        <v>-155.28044589617201</v>
-      </c>
-      <c r="J54">
-        <v>939.03460023365903</v>
-      </c>
-      <c r="K54">
-        <v>260417.41001068099</v>
-      </c>
-      <c r="L54">
-        <v>2139430.3979902798</v>
+        <v>143</v>
+      </c>
+      <c r="H54" t="s">
+        <v>144</v>
+      </c>
+      <c r="I54" t="s">
+        <v>144</v>
+      </c>
+      <c r="J54" t="s">
+        <v>144</v>
+      </c>
+      <c r="K54" t="s">
+        <v>144</v>
+      </c>
+      <c r="L54" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.35">
@@ -5551,28 +5362,28 @@
         <v>21</v>
       </c>
       <c r="E55" t="s">
-        <v>217</v>
+        <v>292</v>
       </c>
       <c r="F55" t="s">
-        <v>218</v>
+        <v>293</v>
       </c>
       <c r="G55" t="s">
-        <v>219</v>
+        <v>294</v>
       </c>
       <c r="H55">
-        <v>19.333678802934202</v>
+        <v>19.333676842639601</v>
       </c>
       <c r="I55">
-        <v>-155.28066355454399</v>
+        <v>-155.28066060386101</v>
       </c>
       <c r="J55">
-        <v>939.19857156369801</v>
+        <v>939.19974973332103</v>
       </c>
       <c r="K55">
-        <v>260393.183603454</v>
+        <v>260393.49086949599</v>
       </c>
       <c r="L55">
-        <v>2139328.3286960502</v>
+        <v>2139328.1075616302</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
@@ -5589,28 +5400,28 @@
         <v>21</v>
       </c>
       <c r="E56" t="s">
-        <v>221</v>
+        <v>295</v>
       </c>
       <c r="F56" t="s">
-        <v>222</v>
+        <v>296</v>
       </c>
       <c r="G56" t="s">
-        <v>223</v>
+        <v>297</v>
       </c>
       <c r="H56">
-        <v>19.3326567896402</v>
+        <v>19.332654829343799</v>
       </c>
       <c r="I56">
-        <v>-155.28059695868899</v>
+        <v>-155.28059400802499</v>
       </c>
       <c r="J56">
-        <v>936.95860059559402</v>
+        <v>936.95978297758904</v>
       </c>
       <c r="K56">
-        <v>260398.69113545</v>
+        <v>260398.99840173899</v>
       </c>
       <c r="L56">
-        <v>2139215.0783395399</v>
+        <v>2139214.8572052801</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.35">
@@ -5627,28 +5438,28 @@
         <v>22</v>
       </c>
       <c r="E57" t="s">
-        <v>225</v>
+        <v>298</v>
       </c>
       <c r="F57" t="s">
-        <v>226</v>
+        <v>299</v>
       </c>
       <c r="G57" t="s">
-        <v>227</v>
+        <v>300</v>
       </c>
       <c r="H57">
-        <v>19.331746728904498</v>
+        <v>19.331744767623402</v>
       </c>
       <c r="I57">
-        <v>-155.280250547538</v>
+        <v>-155.28024759602701</v>
       </c>
       <c r="J57">
-        <v>931.68687298521399</v>
+        <v>931.68806693889201</v>
       </c>
       <c r="K57">
-        <v>260433.77222625</v>
+        <v>260434.07958227201</v>
       </c>
       <c r="L57">
-        <v>2139113.8357764701</v>
+        <v>2139113.61453286</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
@@ -5665,28 +5476,28 @@
         <v>22</v>
       </c>
       <c r="E58" t="s">
-        <v>229</v>
+        <v>301</v>
       </c>
       <c r="F58" t="s">
-        <v>230</v>
+        <v>302</v>
       </c>
       <c r="G58" t="s">
-        <v>231</v>
+        <v>303</v>
       </c>
       <c r="H58">
-        <v>19.330570185433</v>
+        <v>19.3305682244198</v>
       </c>
       <c r="I58">
-        <v>-155.28009180342599</v>
+        <v>-155.28008885153901</v>
       </c>
       <c r="J58">
-        <v>928.13195211812899</v>
+        <v>928.13306562788796</v>
       </c>
       <c r="K58">
-        <v>260448.74004830499</v>
+        <v>260449.04744685601</v>
       </c>
       <c r="L58">
-        <v>2138983.3481478901</v>
+        <v>2138983.1269339598</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.35">
@@ -5703,28 +5514,28 @@
         <v>22</v>
       </c>
       <c r="E59" t="s">
-        <v>233</v>
+        <v>304</v>
       </c>
       <c r="F59" t="s">
-        <v>234</v>
+        <v>305</v>
       </c>
       <c r="G59" t="s">
-        <v>235</v>
+        <v>306</v>
       </c>
       <c r="H59">
-        <v>19.329646577545201</v>
+        <v>19.329643183003</v>
       </c>
       <c r="I59">
-        <v>-155.27998565190001</v>
+        <v>-155.27998054307699</v>
       </c>
       <c r="J59">
-        <v>928.65403743833303</v>
+        <v>928.65594828594499</v>
       </c>
       <c r="K59">
-        <v>260458.54945906901</v>
+        <v>260459.08147540301</v>
       </c>
       <c r="L59">
-        <v>2138880.9386154301</v>
+        <v>2138880.5556928799</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.35">
@@ -5741,66 +5552,66 @@
         <v>23</v>
       </c>
       <c r="E60" t="s">
-        <v>237</v>
+        <v>307</v>
       </c>
       <c r="F60" t="s">
-        <v>238</v>
+        <v>308</v>
       </c>
       <c r="G60" t="s">
-        <v>239</v>
+        <v>309</v>
       </c>
       <c r="H60">
-        <v>19.328786568746398</v>
+        <v>19.328782903723098</v>
       </c>
       <c r="I60">
-        <v>-155.280388537112</v>
+        <v>-155.28038302203899</v>
       </c>
       <c r="J60">
-        <v>923.68357957713295</v>
+        <v>923.685669411905</v>
       </c>
       <c r="K60">
-        <v>260414.94859045901</v>
+        <v>260415.52291400399</v>
       </c>
       <c r="L60">
-        <v>2138786.2759644599</v>
+        <v>2138785.8625302198</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>61</v>
       </c>
-      <c r="B61">
-        <v>2017</v>
-      </c>
-      <c r="C61">
-        <v>7</v>
-      </c>
-      <c r="D61">
-        <v>23</v>
+      <c r="B61" t="s">
+        <v>143</v>
+      </c>
+      <c r="C61" t="s">
+        <v>143</v>
+      </c>
+      <c r="D61" t="s">
+        <v>143</v>
       </c>
       <c r="E61" t="s">
-        <v>241</v>
+        <v>143</v>
       </c>
       <c r="F61" t="s">
-        <v>242</v>
+        <v>143</v>
       </c>
       <c r="G61" t="s">
-        <v>243</v>
-      </c>
-      <c r="H61">
-        <v>19.327870969654601</v>
-      </c>
-      <c r="I61">
-        <v>-155.28017618884101</v>
-      </c>
-      <c r="J61">
-        <v>920.61832020338602</v>
-      </c>
-      <c r="K61">
-        <v>260435.931825629</v>
-      </c>
-      <c r="L61">
-        <v>2138684.6060589198</v>
+        <v>143</v>
+      </c>
+      <c r="H61" t="s">
+        <v>144</v>
+      </c>
+      <c r="I61" t="s">
+        <v>144</v>
+      </c>
+      <c r="J61" t="s">
+        <v>144</v>
+      </c>
+      <c r="K61" t="s">
+        <v>144</v>
+      </c>
+      <c r="L61" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.35">
@@ -5808,37 +5619,37 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>329</v>
+        <v>143</v>
       </c>
       <c r="C62" t="s">
-        <v>329</v>
+        <v>143</v>
       </c>
       <c r="D62" t="s">
-        <v>329</v>
+        <v>143</v>
       </c>
       <c r="E62" t="s">
-        <v>329</v>
+        <v>143</v>
       </c>
       <c r="F62" t="s">
-        <v>329</v>
+        <v>143</v>
       </c>
       <c r="G62" t="s">
-        <v>329</v>
+        <v>143</v>
       </c>
       <c r="H62" t="s">
-        <v>330</v>
+        <v>144</v>
       </c>
       <c r="I62" t="s">
-        <v>330</v>
+        <v>144</v>
       </c>
       <c r="J62" t="s">
-        <v>330</v>
+        <v>144</v>
       </c>
       <c r="K62" t="s">
-        <v>330</v>
+        <v>144</v>
       </c>
       <c r="L62" t="s">
-        <v>330</v>
+        <v>144</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.35">
@@ -5855,28 +5666,28 @@
         <v>23</v>
       </c>
       <c r="E63" t="s">
-        <v>245</v>
+        <v>310</v>
       </c>
       <c r="F63" t="s">
-        <v>246</v>
+        <v>311</v>
       </c>
       <c r="G63" t="s">
-        <v>247</v>
+        <v>312</v>
       </c>
       <c r="H63">
-        <v>19.3261230219113</v>
+        <v>19.326119356882501</v>
       </c>
       <c r="I63">
-        <v>-155.280385396068</v>
+        <v>-155.28037988107701</v>
       </c>
       <c r="J63">
-        <v>914.67679733038005</v>
+        <v>914.67890605889295</v>
       </c>
       <c r="K63">
-        <v>260411.39193821201</v>
+        <v>260411.96626330199</v>
       </c>
       <c r="L63">
-        <v>2138491.3619273198</v>
+        <v>2138490.9484935799</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.35">
@@ -5884,37 +5695,37 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>329</v>
+        <v>143</v>
       </c>
       <c r="C64" t="s">
-        <v>329</v>
+        <v>143</v>
       </c>
       <c r="D64" t="s">
-        <v>329</v>
+        <v>143</v>
       </c>
       <c r="E64" t="s">
-        <v>329</v>
+        <v>143</v>
       </c>
       <c r="F64" t="s">
-        <v>329</v>
+        <v>143</v>
       </c>
       <c r="G64" t="s">
-        <v>329</v>
+        <v>143</v>
       </c>
       <c r="H64" t="s">
-        <v>330</v>
+        <v>144</v>
       </c>
       <c r="I64" t="s">
-        <v>330</v>
+        <v>144</v>
       </c>
       <c r="J64" t="s">
-        <v>330</v>
+        <v>144</v>
       </c>
       <c r="K64" t="s">
-        <v>330</v>
+        <v>144</v>
       </c>
       <c r="L64" t="s">
-        <v>330</v>
+        <v>144</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.35">
@@ -5922,37 +5733,37 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>329</v>
+        <v>143</v>
       </c>
       <c r="C65" t="s">
-        <v>329</v>
+        <v>143</v>
       </c>
       <c r="D65" t="s">
-        <v>329</v>
+        <v>143</v>
       </c>
       <c r="E65" t="s">
-        <v>329</v>
+        <v>143</v>
       </c>
       <c r="F65" t="s">
-        <v>329</v>
+        <v>143</v>
       </c>
       <c r="G65" t="s">
-        <v>329</v>
+        <v>143</v>
       </c>
       <c r="H65" t="s">
-        <v>330</v>
+        <v>144</v>
       </c>
       <c r="I65" t="s">
-        <v>330</v>
+        <v>144</v>
       </c>
       <c r="J65" t="s">
-        <v>330</v>
+        <v>144</v>
       </c>
       <c r="K65" t="s">
-        <v>330</v>
+        <v>144</v>
       </c>
       <c r="L65" t="s">
-        <v>330</v>
+        <v>144</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.35">
@@ -5960,41 +5771,42 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>329</v>
+        <v>143</v>
       </c>
       <c r="C66" t="s">
-        <v>329</v>
+        <v>143</v>
       </c>
       <c r="D66" t="s">
-        <v>329</v>
+        <v>143</v>
       </c>
       <c r="E66" t="s">
-        <v>329</v>
+        <v>143</v>
       </c>
       <c r="F66" t="s">
-        <v>329</v>
+        <v>143</v>
       </c>
       <c r="G66" t="s">
-        <v>329</v>
+        <v>143</v>
       </c>
       <c r="H66" t="s">
-        <v>330</v>
+        <v>144</v>
       </c>
       <c r="I66" t="s">
-        <v>330</v>
+        <v>144</v>
       </c>
       <c r="J66" t="s">
-        <v>330</v>
+        <v>144</v>
       </c>
       <c r="K66" t="s">
-        <v>330</v>
+        <v>144</v>
       </c>
       <c r="L66" t="s">
-        <v>330</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6022,7 +5834,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>270</v>
+        <v>84</v>
       </c>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
@@ -6033,43 +5845,43 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>262</v>
+        <v>76</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>271</v>
+        <v>85</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>272</v>
+        <v>86</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>273</v>
+        <v>87</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>274</v>
+        <v>88</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>275</v>
+        <v>89</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>276</v>
+        <v>90</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>263</v>
+        <v>77</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>264</v>
+        <v>78</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>265</v>
+        <v>79</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>277</v>
+        <v>91</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>278</v>
+        <v>92</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>279</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
@@ -6080,19 +5892,19 @@
         <v>43015.286979166667</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>280</v>
+        <v>94</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>281</v>
+        <v>95</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>282</v>
+        <v>96</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>283</v>
+        <v>97</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c r="H3" s="16">
         <v>-5469242.9417000003</v>
@@ -6115,25 +5927,25 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" s="15">
         <v>42985.734895833331</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>280</v>
+        <v>94</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>281</v>
+        <v>95</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>282</v>
+        <v>96</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>283</v>
+        <v>97</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c r="H4" s="16">
         <v>-5469283.6491999999</v>
@@ -6156,25 +5968,25 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B5" s="15">
         <v>42985.699479166666</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>280</v>
+        <v>94</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>281</v>
+        <v>95</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>282</v>
+        <v>96</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>283</v>
+        <v>97</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c r="H5" s="16">
         <v>-5469324.2227999996</v>
@@ -6197,25 +6009,25 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B6" s="15">
         <v>42985.72378472222</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>280</v>
+        <v>94</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>281</v>
+        <v>95</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>282</v>
+        <v>96</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>283</v>
+        <v>97</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c r="H6" s="16">
         <v>-5469345.5700000003</v>
@@ -6238,25 +6050,25 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B7" s="15">
         <v>43015.336284722223</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>280</v>
+        <v>94</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>281</v>
+        <v>95</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>282</v>
+        <v>96</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>283</v>
+        <v>97</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c r="H7" s="16">
         <v>-5469211.4401000002</v>
@@ -6279,25 +6091,25 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B8" s="15">
         <v>43015.332118055558</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>280</v>
+        <v>94</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>281</v>
+        <v>95</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>282</v>
+        <v>96</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>283</v>
+        <v>97</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c r="H8" s="16">
         <v>-5469178.5229000002</v>
@@ -6320,25 +6132,25 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B9" s="15">
         <v>43015.549826388888</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>280</v>
+        <v>94</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>281</v>
+        <v>95</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>282</v>
+        <v>96</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>283</v>
+        <v>97</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c r="H9" s="16">
         <v>-5469170.3267000001</v>
@@ -6361,25 +6173,25 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B10" s="15">
         <v>43015.557812500003</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>280</v>
+        <v>94</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>281</v>
+        <v>95</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>282</v>
+        <v>96</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>283</v>
+        <v>97</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c r="H10" s="16">
         <v>-5469158.4713000003</v>
@@ -6402,25 +6214,25 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B11" s="15">
         <v>43015.565104166664</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>280</v>
+        <v>94</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>281</v>
+        <v>95</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>282</v>
+        <v>96</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>283</v>
+        <v>97</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c r="H11" s="16">
         <v>-5469158.4056000002</v>
@@ -6443,25 +6255,25 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B12" s="15">
         <v>43015.746701388889</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>280</v>
+        <v>94</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>281</v>
+        <v>95</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>282</v>
+        <v>96</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>283</v>
+        <v>97</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c r="H12" s="16">
         <v>-5469129.0515000001</v>
@@ -6484,25 +6296,25 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B13" s="15">
         <v>43015.740798611114</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>280</v>
+        <v>94</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>281</v>
+        <v>95</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>282</v>
+        <v>96</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>283</v>
+        <v>97</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c r="H13" s="16">
         <v>-5469115.8475000001</v>
@@ -6525,25 +6337,25 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="B14" s="15">
         <v>43015.730729166666</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>280</v>
+        <v>94</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>281</v>
+        <v>95</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>282</v>
+        <v>96</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>283</v>
+        <v>97</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c r="H14" s="16">
         <v>-5469116.8838</v>
@@ -6566,25 +6378,25 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="B15" s="15">
         <v>43076.5546875</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>280</v>
+        <v>94</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>281</v>
+        <v>95</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>282</v>
+        <v>96</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>283</v>
+        <v>97</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c r="H15" s="16">
         <v>-5469110.5829999996</v>
@@ -6607,25 +6419,25 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B16" s="15">
         <v>43046.303993055553</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>280</v>
+        <v>94</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>281</v>
+        <v>95</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>282</v>
+        <v>96</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>283</v>
+        <v>97</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c r="H16" s="16">
         <v>-5469109.7395000001</v>
@@ -6648,25 +6460,25 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="14" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="B17" s="15">
         <v>43046.311979166669</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>280</v>
+        <v>94</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>281</v>
+        <v>95</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>282</v>
+        <v>96</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>283</v>
+        <v>97</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c r="H17" s="16">
         <v>-5469127.2582</v>
@@ -6689,25 +6501,25 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="14" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="B18" s="15">
         <v>43076.548784722225</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>280</v>
+        <v>94</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>281</v>
+        <v>95</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>282</v>
+        <v>96</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>283</v>
+        <v>97</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c r="H18" s="16">
         <v>-5469096.3501000004</v>
@@ -6730,25 +6542,25 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="14" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="B19" s="15">
         <v>43076.575520833336</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>280</v>
+        <v>94</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>281</v>
+        <v>95</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>282</v>
+        <v>96</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>283</v>
+        <v>97</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c r="H19" s="16">
         <v>-5469082.6025999999</v>
@@ -6771,25 +6583,25 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="14" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>285</v>
+        <v>99</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>280</v>
+        <v>94</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>281</v>
+        <v>95</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>282</v>
+        <v>96</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>283</v>
+        <v>97</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c r="H20" s="16">
         <v>-5469068.8517000005</v>
@@ -6812,25 +6624,25 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="14" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>286</v>
+        <v>100</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>280</v>
+        <v>94</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>281</v>
+        <v>95</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>282</v>
+        <v>96</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>283</v>
+        <v>97</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c r="H21" s="16">
         <v>-5469048.8646999998</v>
@@ -6853,25 +6665,25 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="14" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>287</v>
+        <v>101</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>280</v>
+        <v>94</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>281</v>
+        <v>95</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>282</v>
+        <v>96</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>283</v>
+        <v>97</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c r="H22" s="16">
         <v>-5469049.0427000001</v>
@@ -6894,25 +6706,25 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="14" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>288</v>
+        <v>102</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>280</v>
+        <v>94</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>281</v>
+        <v>95</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>282</v>
+        <v>96</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>283</v>
+        <v>97</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c r="H23" s="16">
         <v>-5469032.0411</v>
@@ -6935,25 +6747,25 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="14" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>289</v>
+        <v>103</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>280</v>
+        <v>94</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>281</v>
+        <v>95</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>282</v>
+        <v>96</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>283</v>
+        <v>97</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c r="H24" s="16">
         <v>-5469070.7825999996</v>
@@ -6976,25 +6788,25 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="14" t="s">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>290</v>
+        <v>104</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>280</v>
+        <v>94</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>281</v>
+        <v>95</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>282</v>
+        <v>96</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>283</v>
+        <v>97</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c r="H25" s="16">
         <v>-5469030.233</v>
@@ -7017,25 +6829,25 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="14" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>291</v>
+        <v>105</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>280</v>
+        <v>94</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>281</v>
+        <v>95</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>282</v>
+        <v>96</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>283</v>
+        <v>97</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c r="H26" s="16">
         <v>-5469021.8975</v>
@@ -7058,25 +6870,25 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="B27" s="17" t="s">
-        <v>292</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>280</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>282</v>
-      </c>
       <c r="F27" s="14" t="s">
-        <v>283</v>
+        <v>97</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c r="H27" s="16">
         <v>-5468998.1453999998</v>
@@ -7099,25 +6911,25 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="14" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>293</v>
+        <v>107</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>280</v>
+        <v>94</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>281</v>
+        <v>95</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>282</v>
+        <v>96</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>283</v>
+        <v>97</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c r="H28" s="16">
         <v>-5468988.0202000001</v>
@@ -7140,25 +6952,25 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="B29" s="17" t="s">
-        <v>294</v>
-      </c>
       <c r="C29" s="14" t="s">
-        <v>280</v>
+        <v>94</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>281</v>
+        <v>95</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>282</v>
+        <v>96</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>283</v>
+        <v>97</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c r="H29" s="16">
         <v>-5468955.9524999997</v>
@@ -7181,25 +6993,25 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="14" t="s">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>295</v>
+        <v>109</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>280</v>
+        <v>94</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>281</v>
+        <v>95</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>282</v>
+        <v>96</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>283</v>
+        <v>97</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c r="H30" s="16">
         <v>-5468932.1003999999</v>
@@ -7222,25 +7034,25 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="14" t="s">
-        <v>116</v>
+        <v>29</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>296</v>
+        <v>110</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>280</v>
+        <v>94</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>281</v>
+        <v>95</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>282</v>
+        <v>96</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>283</v>
+        <v>97</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c r="H31" s="16">
         <v>-5468913.3881999999</v>
@@ -7263,25 +7075,25 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="14" t="s">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>297</v>
+        <v>111</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>280</v>
+        <v>94</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>281</v>
+        <v>95</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>282</v>
+        <v>96</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>283</v>
+        <v>97</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c r="H32" s="16">
         <v>-5468913.7074999996</v>
@@ -7304,25 +7116,25 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="14" t="s">
-        <v>124</v>
+        <v>31</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>298</v>
+        <v>112</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>280</v>
+        <v>94</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>281</v>
+        <v>95</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>282</v>
+        <v>96</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>283</v>
+        <v>97</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c r="H33" s="16">
         <v>-5468888.8471999997</v>
@@ -7345,25 +7157,25 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="14" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>299</v>
+        <v>113</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>280</v>
+        <v>94</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>281</v>
+        <v>95</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>282</v>
+        <v>96</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>283</v>
+        <v>97</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c r="H34" s="16">
         <v>-5468891.1206999999</v>
@@ -7386,25 +7198,25 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="14" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>300</v>
+        <v>114</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>280</v>
+        <v>94</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>281</v>
+        <v>95</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>282</v>
+        <v>96</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>283</v>
+        <v>97</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c r="H35" s="16">
         <v>-5468867.9478000002</v>
@@ -7427,25 +7239,25 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="14" t="s">
-        <v>136</v>
+        <v>34</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>301</v>
+        <v>115</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>280</v>
+        <v>94</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>281</v>
+        <v>95</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>282</v>
+        <v>96</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>283</v>
+        <v>97</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c r="H36" s="16">
         <v>-5468852.2218000004</v>
@@ -7468,25 +7280,25 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="14" t="s">
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>302</v>
+        <v>116</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>280</v>
+        <v>94</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>281</v>
+        <v>95</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>282</v>
+        <v>96</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>283</v>
+        <v>97</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c r="H37" s="16">
         <v>-5468829.5199999996</v>
@@ -7509,25 +7321,25 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="14" t="s">
-        <v>144</v>
+        <v>36</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>303</v>
+        <v>117</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>280</v>
+        <v>94</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>281</v>
+        <v>95</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>282</v>
+        <v>96</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>283</v>
+        <v>97</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c r="H38" s="16">
         <v>-5468819.0546000004</v>
@@ -7550,25 +7362,25 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="14" t="s">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>304</v>
+        <v>118</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>280</v>
+        <v>94</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>281</v>
+        <v>95</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>282</v>
+        <v>96</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>283</v>
+        <v>97</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c r="H39" s="16">
         <v>-5468799.1627000002</v>
@@ -7591,25 +7403,25 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="14" t="s">
-        <v>152</v>
+        <v>38</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>305</v>
+        <v>119</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>280</v>
+        <v>94</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>281</v>
+        <v>95</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>282</v>
+        <v>96</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>283</v>
+        <v>97</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c r="H40" s="16">
         <v>-5468800.6607999997</v>
@@ -7632,25 +7444,25 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="14" t="s">
-        <v>156</v>
+        <v>39</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>306</v>
+        <v>120</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>280</v>
+        <v>94</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>281</v>
+        <v>95</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>282</v>
+        <v>96</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>283</v>
+        <v>97</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c r="H41" s="16">
         <v>-5468769.1325000003</v>
@@ -7673,25 +7485,25 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="14" t="s">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>307</v>
+        <v>121</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>280</v>
+        <v>94</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>281</v>
+        <v>95</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>282</v>
+        <v>96</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>283</v>
+        <v>97</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c r="H42" s="16">
         <v>-5468780.8606000002</v>
@@ -7714,25 +7526,25 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="14" t="s">
-        <v>172</v>
+        <v>43</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>308</v>
+        <v>122</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>280</v>
+        <v>94</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>281</v>
+        <v>95</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>282</v>
+        <v>96</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>283</v>
+        <v>97</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c r="H43" s="16">
         <v>-5468742.5517999995</v>
@@ -7755,25 +7567,25 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="14" t="s">
-        <v>176</v>
+        <v>44</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>309</v>
+        <v>123</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>280</v>
+        <v>94</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>281</v>
+        <v>95</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>282</v>
+        <v>96</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>283</v>
+        <v>97</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c r="H44" s="16">
         <v>-5468636.591</v>
@@ -7796,25 +7608,25 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="14" t="s">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>310</v>
+        <v>124</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>280</v>
+        <v>94</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>281</v>
+        <v>95</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>282</v>
+        <v>96</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>283</v>
+        <v>97</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c r="H45" s="16">
         <v>-5468608.8735999996</v>
@@ -7837,25 +7649,25 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="14" t="s">
-        <v>184</v>
+        <v>46</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>311</v>
+        <v>125</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>280</v>
+        <v>94</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>281</v>
+        <v>95</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>282</v>
+        <v>96</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>283</v>
+        <v>97</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c r="H46" s="16">
         <v>-5469403.1412000004</v>
@@ -7878,25 +7690,25 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="14" t="s">
-        <v>188</v>
+        <v>47</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>312</v>
+        <v>126</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>280</v>
+        <v>94</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>281</v>
+        <v>95</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>282</v>
+        <v>96</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>283</v>
+        <v>97</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c r="H47" s="16">
         <v>-5469456.2017000001</v>
@@ -7919,25 +7731,25 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="14" t="s">
-        <v>192</v>
+        <v>48</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>313</v>
+        <v>127</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>280</v>
+        <v>94</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>281</v>
+        <v>95</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>282</v>
+        <v>96</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>283</v>
+        <v>97</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c r="H48" s="16">
         <v>-5469515.3278999999</v>
@@ -7960,25 +7772,25 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="14" t="s">
-        <v>196</v>
+        <v>49</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>314</v>
+        <v>128</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>280</v>
+        <v>94</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>281</v>
+        <v>95</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>282</v>
+        <v>96</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>283</v>
+        <v>97</v>
       </c>
       <c r="G49" s="14" t="s">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c r="H49" s="16">
         <v>-5469583.2451999998</v>
@@ -8001,25 +7813,25 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="14" t="s">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>315</v>
+        <v>129</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>280</v>
+        <v>94</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>281</v>
+        <v>95</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>282</v>
+        <v>96</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>283</v>
+        <v>97</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c r="H50" s="16">
         <v>-5469620.9046</v>
@@ -8042,25 +7854,25 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="14" t="s">
-        <v>204</v>
+        <v>51</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>316</v>
+        <v>130</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>280</v>
+        <v>94</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>281</v>
+        <v>95</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>282</v>
+        <v>96</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>283</v>
+        <v>97</v>
       </c>
       <c r="G51" s="14" t="s">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c r="H51" s="16">
         <v>-5469661.7210999997</v>
@@ -8083,25 +7895,25 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="14" t="s">
-        <v>208</v>
+        <v>52</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>317</v>
+        <v>131</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>280</v>
+        <v>94</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>281</v>
+        <v>95</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>282</v>
+        <v>96</v>
       </c>
       <c r="F52" s="14" t="s">
-        <v>283</v>
+        <v>97</v>
       </c>
       <c r="G52" s="14" t="s">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c r="H52" s="16">
         <v>-5469692.7796999998</v>
@@ -8124,25 +7936,25 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="14" t="s">
-        <v>212</v>
+        <v>53</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>318</v>
+        <v>132</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>280</v>
+        <v>94</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>281</v>
+        <v>95</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>282</v>
+        <v>96</v>
       </c>
       <c r="F53" s="14" t="s">
-        <v>283</v>
+        <v>97</v>
       </c>
       <c r="G53" s="14" t="s">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c r="H53" s="16">
         <v>-5469734.4636000004</v>
@@ -8165,25 +7977,25 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="14" t="s">
-        <v>216</v>
+        <v>54</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>319</v>
+        <v>133</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>280</v>
+        <v>94</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>281</v>
+        <v>95</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>282</v>
+        <v>96</v>
       </c>
       <c r="F54" s="14" t="s">
-        <v>283</v>
+        <v>97</v>
       </c>
       <c r="G54" s="14" t="s">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c r="H54" s="16">
         <v>-5469774.9780000001</v>
@@ -8206,25 +8018,25 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="14" t="s">
-        <v>220</v>
+        <v>55</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>320</v>
+        <v>134</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>280</v>
+        <v>94</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>281</v>
+        <v>95</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>282</v>
+        <v>96</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>283</v>
+        <v>97</v>
       </c>
       <c r="G55" s="14" t="s">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c r="H55" s="16">
         <v>-5469804.1655000001</v>
@@ -8247,25 +8059,25 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="14" t="s">
-        <v>224</v>
+        <v>56</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>321</v>
+        <v>135</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>280</v>
+        <v>94</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>281</v>
+        <v>95</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>282</v>
+        <v>96</v>
       </c>
       <c r="F56" s="14" t="s">
-        <v>283</v>
+        <v>97</v>
       </c>
       <c r="G56" s="14" t="s">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c r="H56" s="16">
         <v>-5469814.7034999998</v>
@@ -8288,25 +8100,25 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="14" t="s">
-        <v>228</v>
+        <v>57</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>322</v>
+        <v>136</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>280</v>
+        <v>94</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>281</v>
+        <v>95</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>282</v>
+        <v>96</v>
       </c>
       <c r="F57" s="14" t="s">
-        <v>283</v>
+        <v>97</v>
       </c>
       <c r="G57" s="14" t="s">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c r="H57" s="16">
         <v>-5469843.8507000003</v>
@@ -8329,25 +8141,25 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="14" t="s">
-        <v>232</v>
+        <v>58</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>323</v>
+        <v>137</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>280</v>
+        <v>94</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>281</v>
+        <v>95</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>282</v>
+        <v>96</v>
       </c>
       <c r="F58" s="14" t="s">
-        <v>283</v>
+        <v>97</v>
       </c>
       <c r="G58" s="14" t="s">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c r="H58" s="16">
         <v>-5469870.3830000004</v>
@@ -8370,25 +8182,25 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="14" t="s">
-        <v>236</v>
+        <v>59</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>324</v>
+        <v>138</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>280</v>
+        <v>94</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>281</v>
+        <v>95</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>282</v>
+        <v>96</v>
       </c>
       <c r="F59" s="14" t="s">
-        <v>283</v>
+        <v>97</v>
       </c>
       <c r="G59" s="14" t="s">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c r="H59" s="16">
         <v>-5469912.4713000003</v>
@@ -8411,25 +8223,25 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="14" t="s">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>325</v>
+        <v>139</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>280</v>
+        <v>94</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>281</v>
+        <v>95</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>282</v>
+        <v>96</v>
       </c>
       <c r="F60" s="14" t="s">
-        <v>283</v>
+        <v>97</v>
       </c>
       <c r="G60" s="14" t="s">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c r="H60" s="16">
         <v>-5469931.0182999996</v>
@@ -8452,25 +8264,25 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" s="14" t="s">
-        <v>326</v>
+        <v>140</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>327</v>
+        <v>141</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>280</v>
+        <v>94</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>281</v>
+        <v>95</v>
       </c>
       <c r="E61" s="14" t="s">
-        <v>282</v>
+        <v>96</v>
       </c>
       <c r="F61" s="14" t="s">
-        <v>283</v>
+        <v>97</v>
       </c>
       <c r="G61" s="14" t="s">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c r="H61" s="16">
         <v>-5469964.6397000002</v>
@@ -8493,25 +8305,25 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" s="14" t="s">
-        <v>244</v>
+        <v>61</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>328</v>
+        <v>142</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>280</v>
+        <v>94</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>281</v>
+        <v>95</v>
       </c>
       <c r="E62" s="14" t="s">
-        <v>282</v>
+        <v>96</v>
       </c>
       <c r="F62" s="14" t="s">
-        <v>283</v>
+        <v>97</v>
       </c>
       <c r="G62" s="14" t="s">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c r="H62" s="16">
         <v>-5469993.2616999997</v>
@@ -9552,37 +9364,37 @@
         <v>27</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>329</v>
+        <v>143</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>329</v>
+        <v>143</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>329</v>
+        <v>143</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>329</v>
+        <v>143</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>329</v>
+        <v>143</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>329</v>
+        <v>143</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>330</v>
+        <v>144</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>330</v>
+        <v>144</v>
       </c>
       <c r="J27" s="14" t="s">
-        <v>330</v>
+        <v>144</v>
       </c>
       <c r="K27" s="14" t="s">
-        <v>330</v>
+        <v>144</v>
       </c>
       <c r="L27" s="14" t="s">
-        <v>330</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
@@ -10122,37 +9934,37 @@
         <v>42</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>329</v>
+        <v>143</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>329</v>
+        <v>143</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>329</v>
+        <v>143</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>329</v>
+        <v>143</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>329</v>
+        <v>143</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>329</v>
+        <v>143</v>
       </c>
       <c r="H42" s="14" t="s">
-        <v>330</v>
+        <v>144</v>
       </c>
       <c r="I42" s="14" t="s">
-        <v>330</v>
+        <v>144</v>
       </c>
       <c r="J42" s="14" t="s">
-        <v>330</v>
+        <v>144</v>
       </c>
       <c r="K42" s="14" t="s">
-        <v>330</v>
+        <v>144</v>
       </c>
       <c r="L42" s="14" t="s">
-        <v>330</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
@@ -10160,37 +9972,37 @@
         <v>43</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>329</v>
+        <v>143</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>329</v>
+        <v>143</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>329</v>
+        <v>143</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>329</v>
+        <v>143</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>329</v>
+        <v>143</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>329</v>
+        <v>143</v>
       </c>
       <c r="H43" s="14" t="s">
-        <v>330</v>
+        <v>144</v>
       </c>
       <c r="I43" s="14" t="s">
-        <v>330</v>
+        <v>144</v>
       </c>
       <c r="J43" s="14" t="s">
-        <v>330</v>
+        <v>144</v>
       </c>
       <c r="K43" s="14" t="s">
-        <v>330</v>
+        <v>144</v>
       </c>
       <c r="L43" s="14" t="s">
-        <v>330</v>
+        <v>144</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.35">
@@ -10958,37 +10770,37 @@
         <v>64</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>329</v>
+        <v>143</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>329</v>
+        <v>143</v>
       </c>
       <c r="D64" s="16" t="s">
-        <v>329</v>
+        <v>143</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>329</v>
+        <v>143</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>329</v>
+        <v>143</v>
       </c>
       <c r="G64" s="16" t="s">
-        <v>329</v>
+        <v>143</v>
       </c>
       <c r="H64" s="14" t="s">
-        <v>330</v>
+        <v>144</v>
       </c>
       <c r="I64" s="14" t="s">
-        <v>330</v>
+        <v>144</v>
       </c>
       <c r="J64" s="14" t="s">
-        <v>330</v>
+        <v>144</v>
       </c>
       <c r="K64" s="14" t="s">
-        <v>330</v>
+        <v>144</v>
       </c>
       <c r="L64" s="14" t="s">
-        <v>330</v>
+        <v>144</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.35">
@@ -10996,37 +10808,37 @@
         <v>65</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>329</v>
+        <v>143</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>329</v>
+        <v>143</v>
       </c>
       <c r="D65" s="16" t="s">
-        <v>329</v>
+        <v>143</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>329</v>
+        <v>143</v>
       </c>
       <c r="F65" s="16" t="s">
-        <v>329</v>
+        <v>143</v>
       </c>
       <c r="G65" s="16" t="s">
-        <v>329</v>
+        <v>143</v>
       </c>
       <c r="H65" s="14" t="s">
-        <v>330</v>
+        <v>144</v>
       </c>
       <c r="I65" s="14" t="s">
-        <v>330</v>
+        <v>144</v>
       </c>
       <c r="J65" s="14" t="s">
-        <v>330</v>
+        <v>144</v>
       </c>
       <c r="K65" s="14" t="s">
-        <v>330</v>
+        <v>144</v>
       </c>
       <c r="L65" s="14" t="s">
-        <v>330</v>
+        <v>144</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.35">
@@ -11034,37 +10846,37 @@
         <v>66</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>329</v>
+        <v>143</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>329</v>
+        <v>143</v>
       </c>
       <c r="D66" s="16" t="s">
-        <v>329</v>
+        <v>143</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>329</v>
+        <v>143</v>
       </c>
       <c r="F66" s="16" t="s">
-        <v>329</v>
+        <v>143</v>
       </c>
       <c r="G66" s="16" t="s">
-        <v>329</v>
+        <v>143</v>
       </c>
       <c r="H66" s="14" t="s">
-        <v>330</v>
+        <v>144</v>
       </c>
       <c r="I66" s="14" t="s">
-        <v>330</v>
+        <v>144</v>
       </c>
       <c r="J66" s="14" t="s">
-        <v>330</v>
+        <v>144</v>
       </c>
       <c r="K66" s="14" t="s">
-        <v>330</v>
+        <v>144</v>
       </c>
       <c r="L66" s="14" t="s">
-        <v>330</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
